--- a/DocsWeb/(正式3)111年委員專長-2.xlsx
+++ b/DocsWeb/(正式3)111年委員專長-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\DocsWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF27E39-98EE-4FFA-80FD-ECFEFEB44340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE34A1B-C38C-4463-879D-6F0BF3EB55DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{10A2B73F-5715-498C-8185-EC7965AF6250}"/>
   </bookViews>
@@ -4856,13 +4856,13 @@
         <rFont val="Times New Roman"/>
         <family val="4"/>
       </rPr>
-      <t>_Env_112</t>
+      <t>_Env_111</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>能源署
-出現次數_Eng_112</t>
+出現次數_Eng_111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4884,7 +4884,7 @@
         <rFont val="Times New Roman"/>
         <family val="4"/>
       </rPr>
-      <t>_Ida_112</t>
+      <t>_Ida_111</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4893,7 +4893,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5519,10 +5519,10 @@
   <dimension ref="A1:P396"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="10.453125" style="22" customWidth="1"/>
     <col min="2" max="2" width="6" style="22" customWidth="1"/>
@@ -5536,7 +5536,7 @@
     <col min="14" max="14" width="0" style="23" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="51" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="51">
       <c r="A1" s="1" t="s">
         <v>1272</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="25" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" s="25" customFormat="1" ht="33" customHeight="1">
       <c r="A2" s="48"/>
       <c r="B2" s="4">
         <f>SUBTOTAL(3,$C$2:C2)*1</f>
@@ -5616,7 +5616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A3" s="49"/>
       <c r="B3" s="4">
         <f>SUBTOTAL(3,$C$2:C3)*1</f>
@@ -5652,7 +5652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A4" s="49"/>
       <c r="B4" s="4">
         <f>SUBTOTAL(3,$C$2:C4)*1</f>
@@ -5688,7 +5688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A5" s="49"/>
       <c r="B5" s="4">
         <f>SUBTOTAL(3,$C$2:C5)*1</f>
@@ -5724,7 +5724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A6" s="49"/>
       <c r="B6" s="4">
         <f>SUBTOTAL(3,$C$2:C6)*1</f>
@@ -5760,7 +5760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A7" s="49"/>
       <c r="B7" s="4">
         <f>SUBTOTAL(3,$C$2:C7)*1</f>
@@ -5796,7 +5796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A8" s="49"/>
       <c r="B8" s="4">
         <f>SUBTOTAL(3,$C$2:C8)*1</f>
@@ -5832,7 +5832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A9" s="49"/>
       <c r="B9" s="4">
         <f>SUBTOTAL(3,$C$2:C9)*1</f>
@@ -5868,7 +5868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A10" s="49"/>
       <c r="B10" s="4">
         <f>SUBTOTAL(3,$C$2:C10)*1</f>
@@ -5904,7 +5904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A11" s="49"/>
       <c r="B11" s="4">
         <f>SUBTOTAL(3,$C$2:C11)*1</f>
@@ -5940,7 +5940,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A12" s="49"/>
       <c r="B12" s="4">
         <f>SUBTOTAL(3,$C$2:C12)*1</f>
@@ -5976,7 +5976,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A13" s="49"/>
       <c r="B13" s="4">
         <f>SUBTOTAL(3,$C$2:C13)*1</f>
@@ -6012,7 +6012,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A14" s="49"/>
       <c r="B14" s="4">
         <f>SUBTOTAL(3,$C$2:C14)*1</f>
@@ -6048,7 +6048,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A15" s="49"/>
       <c r="B15" s="4">
         <f>SUBTOTAL(3,$C$2:C15)*1</f>
@@ -6084,7 +6084,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A16" s="49"/>
       <c r="B16" s="4">
         <f>SUBTOTAL(3,$C$2:C16)*1</f>
@@ -6120,7 +6120,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A17" s="49"/>
       <c r="B17" s="4">
         <f>SUBTOTAL(3,$C$2:C17)*1</f>
@@ -6156,7 +6156,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A18" s="49"/>
       <c r="B18" s="4">
         <f>SUBTOTAL(3,$C$2:C18)*1</f>
@@ -6192,7 +6192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="49"/>
       <c r="B19" s="4">
         <f>SUBTOTAL(3,$C$2:C19)*1</f>
@@ -6228,7 +6228,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A20" s="49"/>
       <c r="B20" s="4">
         <f>SUBTOTAL(3,$C$2:C20)*1</f>
@@ -6264,7 +6264,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A21" s="49"/>
       <c r="B21" s="4">
         <f>SUBTOTAL(3,$C$2:C21)*1</f>
@@ -6300,7 +6300,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A22" s="49"/>
       <c r="B22" s="4">
         <f>SUBTOTAL(3,$C$2:C22)*1</f>
@@ -6336,7 +6336,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A23" s="49"/>
       <c r="B23" s="4">
         <f>SUBTOTAL(3,$C$2:C23)*1</f>
@@ -6372,7 +6372,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A24" s="49"/>
       <c r="B24" s="4">
         <f>SUBTOTAL(3,$C$2:C24)*1</f>
@@ -6408,7 +6408,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A25" s="49"/>
       <c r="B25" s="4">
         <f>SUBTOTAL(3,$C$2:C25)*1</f>
@@ -6444,7 +6444,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A26" s="49"/>
       <c r="B26" s="4">
         <f>SUBTOTAL(3,$C$2:C26)*1</f>
@@ -6480,7 +6480,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A27" s="49"/>
       <c r="B27" s="4">
         <f>SUBTOTAL(3,$C$2:C27)*1</f>
@@ -6516,7 +6516,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A28" s="49"/>
       <c r="B28" s="4">
         <f>SUBTOTAL(3,$C$2:C28)*1</f>
@@ -6552,7 +6552,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A29" s="49"/>
       <c r="B29" s="4">
         <f>SUBTOTAL(3,$C$2:C29)*1</f>
@@ -6588,7 +6588,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A30" s="49"/>
       <c r="B30" s="4">
         <f>SUBTOTAL(3,$C$2:C30)*1</f>
@@ -6624,7 +6624,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A31" s="49"/>
       <c r="B31" s="4">
         <f>SUBTOTAL(3,$C$2:C31)*1</f>
@@ -6660,7 +6660,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A32" s="49"/>
       <c r="B32" s="4">
         <f>SUBTOTAL(3,$C$2:C32)*1</f>
@@ -6696,7 +6696,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A33" s="49"/>
       <c r="B33" s="4">
         <f>SUBTOTAL(3,$C$2:C33)*1</f>
@@ -6732,7 +6732,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A34" s="49"/>
       <c r="B34" s="4">
         <f>SUBTOTAL(3,$C$2:C34)*1</f>
@@ -6768,7 +6768,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A35" s="49"/>
       <c r="B35" s="4">
         <f>SUBTOTAL(3,$C$2:C35)*1</f>
@@ -6804,7 +6804,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A36" s="49"/>
       <c r="B36" s="4">
         <f>SUBTOTAL(3,$C$2:C36)*1</f>
@@ -6840,7 +6840,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A37" s="49"/>
       <c r="B37" s="4">
         <f>SUBTOTAL(3,$C$2:C37)*1</f>
@@ -6876,7 +6876,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A38" s="49"/>
       <c r="B38" s="4">
         <f>SUBTOTAL(3,$C$2:C38)*1</f>
@@ -6912,7 +6912,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A39" s="49"/>
       <c r="B39" s="4">
         <f>SUBTOTAL(3,$C$2:C39)*1</f>
@@ -6948,7 +6948,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A40" s="49"/>
       <c r="B40" s="4">
         <f>SUBTOTAL(3,$C$2:C40)*1</f>
@@ -6982,7 +6982,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
       <c r="A41" s="49"/>
       <c r="B41" s="4">
         <f>SUBTOTAL(3,$C$2:C41)*1</f>
@@ -7016,7 +7016,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1">
       <c r="A42" s="51"/>
       <c r="B42" s="4">
         <f>SUBTOTAL(3,$C$2:C42)*1</f>
@@ -7060,7 +7060,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1">
       <c r="A43" s="51"/>
       <c r="B43" s="4">
         <f>SUBTOTAL(3,$C$2:C43)*1</f>
@@ -7104,7 +7104,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1">
       <c r="A44" s="51"/>
       <c r="B44" s="4">
         <f>SUBTOTAL(3,$C$2:C44)*1</f>
@@ -7148,7 +7148,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1">
       <c r="A45" s="51"/>
       <c r="B45" s="4">
         <f>SUBTOTAL(3,$C$2:C45)*1</f>
@@ -7192,7 +7192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1">
       <c r="A46" s="51"/>
       <c r="B46" s="4">
         <f>SUBTOTAL(3,$C$2:C46)*1</f>
@@ -7236,7 +7236,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1">
       <c r="A47" s="51"/>
       <c r="B47" s="4">
         <f>SUBTOTAL(3,$C$2:C47)*1</f>
@@ -7280,7 +7280,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1">
       <c r="A48" s="51"/>
       <c r="B48" s="4">
         <f>SUBTOTAL(3,$C$2:C48)*1</f>
@@ -7324,7 +7324,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
       <c r="A49" s="45"/>
       <c r="B49" s="12">
         <f>SUBTOTAL(3,$C$2:C49)*1</f>
@@ -7368,7 +7368,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
       <c r="A50" s="45"/>
       <c r="B50" s="12">
         <f>SUBTOTAL(3,$C$2:C50)*1</f>
@@ -7412,7 +7412,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
       <c r="A51" s="45"/>
       <c r="B51" s="12">
         <f>SUBTOTAL(3,$C$2:C51)*1</f>
@@ -7456,7 +7456,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
       <c r="A52" s="45"/>
       <c r="B52" s="12">
         <f>SUBTOTAL(3,$C$2:C52)*1</f>
@@ -7500,7 +7500,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A53" s="46"/>
       <c r="B53" s="12">
         <f>SUBTOTAL(3,$C$2:C53)*1</f>
@@ -7534,7 +7534,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="35" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" s="35" customFormat="1" ht="33" customHeight="1">
       <c r="A54" s="15"/>
       <c r="B54" s="12">
         <f>SUBTOTAL(3,$C$2:C54)*1</f>
@@ -7578,7 +7578,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
       <c r="A55" s="45"/>
       <c r="B55" s="12">
         <f>SUBTOTAL(3,$C$2:C55)*1</f>
@@ -7620,7 +7620,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
       <c r="A56" s="45"/>
       <c r="B56" s="12">
         <f>SUBTOTAL(3,$C$2:C56)*1</f>
@@ -7662,7 +7662,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
       <c r="A57" s="45" t="s">
         <v>1283</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="58" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
       <c r="A58" s="45"/>
       <c r="B58" s="12">
         <f>SUBTOTAL(3,$C$2:C58)*1</f>
@@ -7752,7 +7752,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
       <c r="A59" s="45"/>
       <c r="B59" s="12">
         <f>SUBTOTAL(3,$C$2:C59)*1</f>
@@ -7796,7 +7796,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
       <c r="A60" s="45"/>
       <c r="B60" s="12">
         <f>SUBTOTAL(3,$C$2:C60)*1</f>
@@ -7840,7 +7840,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A61" s="46"/>
       <c r="B61" s="12">
         <f>SUBTOTAL(3,$C$2:C61)*1</f>
@@ -7874,7 +7874,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A62" s="46"/>
       <c r="B62" s="12">
         <f>SUBTOTAL(3,$C$2:C62)*1</f>
@@ -7910,7 +7910,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A63" s="46"/>
       <c r="B63" s="12">
         <f>SUBTOTAL(3,$C$2:C63)*1</f>
@@ -7946,7 +7946,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A64" s="46"/>
       <c r="B64" s="12">
         <f>SUBTOTAL(3,$C$2:C64)*1</f>
@@ -7980,7 +7980,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A65" s="46"/>
       <c r="B65" s="12">
         <f>SUBTOTAL(3,$C$2:C65)*1</f>
@@ -8016,7 +8016,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A66" s="46"/>
       <c r="B66" s="12">
         <f>SUBTOTAL(3,$C$2:C66)*1</f>
@@ -8052,7 +8052,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A67" s="46"/>
       <c r="B67" s="12">
         <f>SUBTOTAL(3,$C$2:C67)*1</f>
@@ -8086,7 +8086,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A68" s="46"/>
       <c r="B68" s="12">
         <f>SUBTOTAL(3,$C$2:C68)*1</f>
@@ -8122,7 +8122,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="69" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A69" s="46"/>
       <c r="B69" s="12">
         <f>SUBTOTAL(3,$C$2:C69)*1</f>
@@ -8158,7 +8158,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A70" s="46"/>
       <c r="B70" s="12">
         <f>SUBTOTAL(3,$C$2:C70)*1</f>
@@ -8194,7 +8194,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A71" s="46"/>
       <c r="B71" s="12">
         <f>SUBTOTAL(3,$C$2:C71)*1</f>
@@ -8230,7 +8230,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A72" s="46"/>
       <c r="B72" s="12">
         <f>SUBTOTAL(3,$C$2:C72)*1</f>
@@ -8264,7 +8264,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A73" s="46"/>
       <c r="B73" s="12">
         <f>SUBTOTAL(3,$C$2:C73)*1</f>
@@ -8300,7 +8300,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A74" s="46"/>
       <c r="B74" s="12">
         <f>SUBTOTAL(3,$C$2:C74)*1</f>
@@ -8336,7 +8336,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A75" s="46"/>
       <c r="B75" s="12">
         <f>SUBTOTAL(3,$C$2:C75)*1</f>
@@ -8370,7 +8370,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A76" s="46"/>
       <c r="B76" s="12">
         <f>SUBTOTAL(3,$C$2:C76)*1</f>
@@ -8404,7 +8404,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A77" s="46"/>
       <c r="B77" s="12">
         <f>SUBTOTAL(3,$C$2:C77)*1</f>
@@ -8440,7 +8440,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="78" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A78" s="46"/>
       <c r="B78" s="12">
         <f>SUBTOTAL(3,$C$2:C78)*1</f>
@@ -8476,7 +8476,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="79" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A79" s="46"/>
       <c r="B79" s="12">
         <f>SUBTOTAL(3,$C$2:C79)*1</f>
@@ -8512,7 +8512,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="80" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A80" s="46"/>
       <c r="B80" s="12">
         <f>SUBTOTAL(3,$C$2:C80)*1</f>
@@ -8548,7 +8548,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="81" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A81" s="46"/>
       <c r="B81" s="12">
         <f>SUBTOTAL(3,$C$2:C81)*1</f>
@@ -8584,7 +8584,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="82" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A82" s="46"/>
       <c r="B82" s="12">
         <f>SUBTOTAL(3,$C$2:C82)*1</f>
@@ -8620,7 +8620,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
       <c r="A83" s="45"/>
       <c r="B83" s="12">
         <f>SUBTOTAL(3,$C$2:C83)*1</f>
@@ -8662,7 +8662,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="84" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
       <c r="A84" s="45"/>
       <c r="B84" s="12">
         <f>SUBTOTAL(3,$C$2:C84)*1</f>
@@ -8706,7 +8706,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="85" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
       <c r="A85" s="45" t="s">
         <v>1283</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
       <c r="A86" s="45"/>
       <c r="B86" s="12">
         <f>SUBTOTAL(3,$C$2:C86)*1</f>
@@ -8794,7 +8794,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="87" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
       <c r="A87" s="45"/>
       <c r="B87" s="12">
         <f>SUBTOTAL(3,$C$2:C87)*1</f>
@@ -8838,7 +8838,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="88" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
       <c r="A88" s="45" t="s">
         <v>1283</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="89" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
       <c r="A89" s="45" t="s">
         <v>1283</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="90" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
       <c r="A90" s="45"/>
       <c r="B90" s="12">
         <f>SUBTOTAL(3,$C$2:C90)*1</f>
@@ -8968,7 +8968,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="91" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
       <c r="A91" s="45"/>
       <c r="B91" s="12">
         <f>SUBTOTAL(3,$C$2:C91)*1</f>
@@ -9012,7 +9012,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="92" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
       <c r="A92" s="45"/>
       <c r="B92" s="12">
         <f>SUBTOTAL(3,$C$2:C92)*1</f>
@@ -9056,7 +9056,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
       <c r="A93" s="45"/>
       <c r="B93" s="12">
         <f>SUBTOTAL(3,$C$2:C93)*1</f>
@@ -9100,7 +9100,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="94" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
       <c r="A94" s="45"/>
       <c r="B94" s="12">
         <f>SUBTOTAL(3,$C$2:C94)*1</f>
@@ -9144,7 +9144,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="95" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
       <c r="A95" s="45" t="s">
         <v>1283</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="96" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A96" s="46"/>
       <c r="B96" s="12">
         <f>SUBTOTAL(3,$C$2:C96)*1</f>
@@ -9234,7 +9234,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="97" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A97" s="46"/>
       <c r="B97" s="12">
         <f>SUBTOTAL(3,$C$2:C97)*1</f>
@@ -9268,7 +9268,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="98" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A98" s="46"/>
       <c r="B98" s="12">
         <f>SUBTOTAL(3,$C$2:C98)*1</f>
@@ -9302,7 +9302,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="99" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A99" s="46"/>
       <c r="B99" s="12">
         <f>SUBTOTAL(3,$C$2:C99)*1</f>
@@ -9336,7 +9336,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="100" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A100" s="46"/>
       <c r="B100" s="12">
         <f>SUBTOTAL(3,$C$2:C100)*1</f>
@@ -9370,7 +9370,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="101" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A101" s="46"/>
       <c r="B101" s="12">
         <f>SUBTOTAL(3,$C$2:C101)*1</f>
@@ -9404,7 +9404,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="102" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A102" s="46"/>
       <c r="B102" s="12">
         <f>SUBTOTAL(3,$C$2:C102)*1</f>
@@ -9438,7 +9438,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="103" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A103" s="46"/>
       <c r="B103" s="12">
         <f>SUBTOTAL(3,$C$2:C103)*1</f>
@@ -9482,7 +9482,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="104" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A104" s="46"/>
       <c r="B104" s="12">
         <f>SUBTOTAL(3,$C$2:C104)*1</f>
@@ -9526,7 +9526,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="105" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A105" s="46"/>
       <c r="B105" s="12">
         <f>SUBTOTAL(3,$C$2:C105)*1</f>
@@ -9570,7 +9570,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="106" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A106" s="46"/>
       <c r="B106" s="12">
         <f>SUBTOTAL(3,$C$2:C106)*1</f>
@@ -9614,7 +9614,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="107" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A107" s="46"/>
       <c r="B107" s="12">
         <f>SUBTOTAL(3,$C$2:C107)*1</f>
@@ -9648,7 +9648,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="108" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A108" s="46"/>
       <c r="B108" s="12">
         <f>SUBTOTAL(3,$C$2:C108)*1</f>
@@ -9682,7 +9682,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="109" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A109" s="46"/>
       <c r="B109" s="12">
         <f>SUBTOTAL(3,$C$2:C109)*1</f>
@@ -9716,7 +9716,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="110" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A110" s="46"/>
       <c r="B110" s="12">
         <f>SUBTOTAL(3,$C$2:C110)*1</f>
@@ -9750,7 +9750,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="111" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A111" s="46"/>
       <c r="B111" s="12">
         <f>SUBTOTAL(3,$C$2:C111)*1</f>
@@ -9794,7 +9794,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="112" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A112" s="46"/>
       <c r="B112" s="12">
         <f>SUBTOTAL(3,$C$2:C112)*1</f>
@@ -9828,7 +9828,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="113" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A113" s="46"/>
       <c r="B113" s="12">
         <f>SUBTOTAL(3,$C$2:C113)*1</f>
@@ -9862,7 +9862,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="114" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A114" s="46"/>
       <c r="B114" s="12">
         <f>SUBTOTAL(3,$C$2:C114)*1</f>
@@ -9896,7 +9896,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="115" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A115" s="45" t="s">
         <v>1283</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="116" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A116" s="46"/>
       <c r="B116" s="12">
         <f>SUBTOTAL(3,$C$2:C116)*1</f>
@@ -9978,7 +9978,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="117" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A117" s="46"/>
       <c r="B117" s="12">
         <f>SUBTOTAL(3,$C$2:C117)*1</f>
@@ -10014,7 +10014,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="118" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A118" s="46"/>
       <c r="B118" s="12">
         <f>SUBTOTAL(3,$C$2:C118)*1</f>
@@ -10050,7 +10050,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="119" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A119" s="46"/>
       <c r="B119" s="12">
         <f>SUBTOTAL(3,$C$2:C119)*1</f>
@@ -10094,7 +10094,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="120" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A120" s="46"/>
       <c r="B120" s="12">
         <f>SUBTOTAL(3,$C$2:C120)*1</f>
@@ -10128,7 +10128,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="121" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A121" s="46"/>
       <c r="B121" s="12">
         <f>SUBTOTAL(3,$C$2:C121)*1</f>
@@ -10162,7 +10162,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="122" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A122" s="46"/>
       <c r="B122" s="12">
         <f>SUBTOTAL(3,$C$2:C122)*1</f>
@@ -10196,7 +10196,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="123" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A123" s="46"/>
       <c r="B123" s="12">
         <f>SUBTOTAL(3,$C$2:C123)*1</f>
@@ -10240,7 +10240,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="124" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A124" s="46"/>
       <c r="B124" s="12">
         <f>SUBTOTAL(3,$C$2:C124)*1</f>
@@ -10274,7 +10274,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="125" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A125" s="46"/>
       <c r="B125" s="12">
         <f>SUBTOTAL(3,$C$2:C125)*1</f>
@@ -10308,7 +10308,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="126" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A126" s="46"/>
       <c r="B126" s="12">
         <f>SUBTOTAL(3,$C$2:C126)*1</f>
@@ -10352,7 +10352,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="127" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A127" s="46"/>
       <c r="B127" s="12">
         <f>SUBTOTAL(3,$C$2:C127)*1</f>
@@ -10386,7 +10386,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="128" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A128" s="46"/>
       <c r="B128" s="12">
         <f>SUBTOTAL(3,$C$2:C128)*1</f>
@@ -10420,7 +10420,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="129" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A129" s="46"/>
       <c r="B129" s="12">
         <f>SUBTOTAL(3,$C$2:C129)*1</f>
@@ -10454,7 +10454,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="130" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A130" s="46"/>
       <c r="B130" s="12">
         <f>SUBTOTAL(3,$C$2:C130)*1</f>
@@ -10488,7 +10488,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="131" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A131" s="46"/>
       <c r="B131" s="12">
         <f>SUBTOTAL(3,$C$2:C131)*1</f>
@@ -10522,7 +10522,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="132" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A132" s="46"/>
       <c r="B132" s="12">
         <f>SUBTOTAL(3,$C$2:C132)*1</f>
@@ -10556,7 +10556,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="133" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A133" s="46"/>
       <c r="B133" s="12">
         <f>SUBTOTAL(3,$C$2:C133)*1</f>
@@ -10590,7 +10590,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="134" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A134" s="46"/>
       <c r="B134" s="12">
         <f>SUBTOTAL(3,$C$2:C134)*1</f>
@@ -10624,7 +10624,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="135" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A135" s="46"/>
       <c r="B135" s="12">
         <f>SUBTOTAL(3,$C$2:C135)*1</f>
@@ -10658,7 +10658,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="136" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A136" s="46"/>
       <c r="B136" s="12">
         <f>SUBTOTAL(3,$C$2:C136)*1</f>
@@ -10692,7 +10692,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="137" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A137" s="46"/>
       <c r="B137" s="12">
         <f>SUBTOTAL(3,$C$2:C137)*1</f>
@@ -10726,7 +10726,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="138" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A138" s="46"/>
       <c r="B138" s="12">
         <f>SUBTOTAL(3,$C$2:C138)*1</f>
@@ -10760,7 +10760,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="139" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A139" s="46"/>
       <c r="B139" s="12">
         <f>SUBTOTAL(3,$C$2:C139)*1</f>
@@ -10794,7 +10794,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="140" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A140" s="46"/>
       <c r="B140" s="12">
         <f>SUBTOTAL(3,$C$2:C140)*1</f>
@@ -10828,7 +10828,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="141" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A141" s="46"/>
       <c r="B141" s="12">
         <f>SUBTOTAL(3,$C$2:C141)*1</f>
@@ -10862,7 +10862,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="142" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A142" s="46"/>
       <c r="B142" s="12">
         <f>SUBTOTAL(3,$C$2:C142)*1</f>
@@ -10896,7 +10896,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="143" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A143" s="46"/>
       <c r="B143" s="12">
         <f>SUBTOTAL(3,$C$2:C143)*1</f>
@@ -10930,7 +10930,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="144" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A144" s="46"/>
       <c r="B144" s="12">
         <f>SUBTOTAL(3,$C$2:C144)*1</f>
@@ -10974,7 +10974,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="145" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A145" s="46"/>
       <c r="B145" s="12">
         <f>SUBTOTAL(3,$C$2:C145)*1</f>
@@ -11008,7 +11008,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="146" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A146" s="46"/>
       <c r="B146" s="12">
         <f>SUBTOTAL(3,$C$2:C146)*1</f>
@@ -11042,7 +11042,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="147" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A147" s="46"/>
       <c r="B147" s="12">
         <f>SUBTOTAL(3,$C$2:C147)*1</f>
@@ -11076,7 +11076,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="148" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A148" s="46"/>
       <c r="B148" s="12">
         <f>SUBTOTAL(3,$C$2:C148)*1</f>
@@ -11110,7 +11110,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="149" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A149" s="46"/>
       <c r="B149" s="12">
         <f>SUBTOTAL(3,$C$2:C149)*1</f>
@@ -11144,7 +11144,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="150" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A150" s="46"/>
       <c r="B150" s="12">
         <f>SUBTOTAL(3,$C$2:C150)*1</f>
@@ -11178,7 +11178,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="151" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A151" s="46"/>
       <c r="B151" s="12">
         <f>SUBTOTAL(3,$C$2:C151)*1</f>
@@ -11212,7 +11212,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="152" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A152" s="46"/>
       <c r="B152" s="12">
         <f>SUBTOTAL(3,$C$2:C152)*1</f>
@@ -11246,7 +11246,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="153" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A153" s="46"/>
       <c r="B153" s="12">
         <f>SUBTOTAL(3,$C$2:C153)*1</f>
@@ -11280,7 +11280,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="154" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A154" s="46"/>
       <c r="B154" s="12">
         <f>SUBTOTAL(3,$C$2:C154)*1</f>
@@ -11314,7 +11314,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="155" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A155" s="46"/>
       <c r="B155" s="12">
         <f>SUBTOTAL(3,$C$2:C155)*1</f>
@@ -11348,7 +11348,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="156" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A156" s="46"/>
       <c r="B156" s="12">
         <f>SUBTOTAL(3,$C$2:C156)*1</f>
@@ -11382,7 +11382,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="157" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A157" s="46"/>
       <c r="B157" s="12">
         <f>SUBTOTAL(3,$C$2:C157)*1</f>
@@ -11416,7 +11416,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="158" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A158" s="46"/>
       <c r="B158" s="12">
         <f>SUBTOTAL(3,$C$2:C158)*1</f>
@@ -11450,7 +11450,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="159" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A159" s="46"/>
       <c r="B159" s="12">
         <f>SUBTOTAL(3,$C$2:C159)*1</f>
@@ -11484,7 +11484,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="160" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A160" s="46"/>
       <c r="B160" s="12">
         <f>SUBTOTAL(3,$C$2:C160)*1</f>
@@ -11518,7 +11518,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="161" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A161" s="46"/>
       <c r="B161" s="12">
         <f>SUBTOTAL(3,$C$2:C161)*1</f>
@@ -11552,7 +11552,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="162" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A162" s="46"/>
       <c r="B162" s="12">
         <f>SUBTOTAL(3,$C$2:C162)*1</f>
@@ -11586,7 +11586,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="163" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A163" s="46"/>
       <c r="B163" s="12">
         <f>SUBTOTAL(3,$C$2:C163)*1</f>
@@ -11620,7 +11620,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="164" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A164" s="46"/>
       <c r="B164" s="12">
         <f>SUBTOTAL(3,$C$2:C164)*1</f>
@@ -11654,7 +11654,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="165" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A165" s="46"/>
       <c r="B165" s="12">
         <f>SUBTOTAL(3,$C$2:C165)*1</f>
@@ -11688,7 +11688,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="166" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A166" s="46"/>
       <c r="B166" s="12">
         <f>SUBTOTAL(3,$C$2:C166)*1</f>
@@ -11722,7 +11722,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="167" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A167" s="46"/>
       <c r="B167" s="12">
         <f>SUBTOTAL(3,$C$2:C167)*1</f>
@@ -11764,7 +11764,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="168" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A168" s="46"/>
       <c r="B168" s="12">
         <f>SUBTOTAL(3,$C$2:C168)*1</f>
@@ -11798,7 +11798,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="169" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A169" s="46"/>
       <c r="B169" s="12">
         <f>SUBTOTAL(3,$C$2:C169)*1</f>
@@ -11832,7 +11832,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="170" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A170" s="46"/>
       <c r="B170" s="12">
         <f>SUBTOTAL(3,$C$2:C170)*1</f>
@@ -11866,7 +11866,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="171" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A171" s="46"/>
       <c r="B171" s="12">
         <f>SUBTOTAL(3,$C$2:C171)*1</f>
@@ -11900,7 +11900,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="172" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A172" s="46"/>
       <c r="B172" s="12">
         <f>SUBTOTAL(3,$C$2:C172)*1</f>
@@ -11944,7 +11944,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="173" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A173" s="46"/>
       <c r="B173" s="12">
         <f>SUBTOTAL(3,$C$2:C173)*1</f>
@@ -11978,7 +11978,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="174" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A174" s="46"/>
       <c r="B174" s="12">
         <f>SUBTOTAL(3,$C$2:C174)*1</f>
@@ -12012,7 +12012,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="175" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A175" s="46"/>
       <c r="B175" s="12">
         <f>SUBTOTAL(3,$C$2:C175)*1</f>
@@ -12050,7 +12050,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="176" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A176" s="46"/>
       <c r="B176" s="12">
         <f>SUBTOTAL(3,$C$2:C176)*1</f>
@@ -12084,7 +12084,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="177" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A177" s="46"/>
       <c r="B177" s="12">
         <f>SUBTOTAL(3,$C$2:C177)*1</f>
@@ -12118,7 +12118,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="178" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A178" s="46"/>
       <c r="B178" s="12">
         <f>SUBTOTAL(3,$C$2:C178)*1</f>
@@ -12152,7 +12152,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="179" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A179" s="46"/>
       <c r="B179" s="12">
         <f>SUBTOTAL(3,$C$2:C179)*1</f>
@@ -12186,7 +12186,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="180" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A180" s="46"/>
       <c r="B180" s="12">
         <f>SUBTOTAL(3,$C$2:C180)*1</f>
@@ -12220,7 +12220,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="181" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A181" s="46"/>
       <c r="B181" s="12">
         <f>SUBTOTAL(3,$C$2:C181)*1</f>
@@ -12254,7 +12254,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="182" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A182" s="46"/>
       <c r="B182" s="12">
         <f>SUBTOTAL(3,$C$2:C182)*1</f>
@@ -12288,7 +12288,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="183" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A183" s="45" t="s">
         <v>1283</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="184" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A184" s="46"/>
       <c r="B184" s="12">
         <f>SUBTOTAL(3,$C$2:C184)*1</f>
@@ -12374,7 +12374,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="185" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A185" s="46"/>
       <c r="B185" s="12">
         <f>SUBTOTAL(3,$C$2:C185)*1</f>
@@ -12408,7 +12408,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="186" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A186" s="46"/>
       <c r="B186" s="12">
         <f>SUBTOTAL(3,$C$2:C186)*1</f>
@@ -12442,7 +12442,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="187" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A187" s="46"/>
       <c r="B187" s="12">
         <f>SUBTOTAL(3,$C$2:C187)*1</f>
@@ -12484,7 +12484,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="188" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A188" s="46"/>
       <c r="B188" s="12">
         <f>SUBTOTAL(3,$C$2:C188)*1</f>
@@ -12518,7 +12518,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="189" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A189" s="46"/>
       <c r="B189" s="12">
         <f>SUBTOTAL(3,$C$2:C189)*1</f>
@@ -12562,7 +12562,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="190" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A190" s="46"/>
       <c r="B190" s="12">
         <f>SUBTOTAL(3,$C$2:C190)*1</f>
@@ -12606,7 +12606,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="191" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A191" s="46"/>
       <c r="B191" s="12">
         <f>SUBTOTAL(3,$C$2:C191)*1</f>
@@ -12644,7 +12644,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="192" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A192" s="46"/>
       <c r="B192" s="12">
         <f>SUBTOTAL(3,$C$2:C192)*1</f>
@@ -12688,7 +12688,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="193" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A193" s="46"/>
       <c r="B193" s="12">
         <f>SUBTOTAL(3,$C$2:C193)*1</f>
@@ -12722,7 +12722,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="194" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A194" s="46"/>
       <c r="B194" s="12">
         <f>SUBTOTAL(3,$C$2:C194)*1</f>
@@ -12756,7 +12756,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="195" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A195" s="46"/>
       <c r="B195" s="12">
         <f>SUBTOTAL(3,$C$2:C195)*1</f>
@@ -12790,7 +12790,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="196" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A196" s="46"/>
       <c r="B196" s="12">
         <f>SUBTOTAL(3,$C$2:C196)*1</f>
@@ -12824,7 +12824,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="197" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A197" s="46"/>
       <c r="B197" s="12">
         <f>SUBTOTAL(3,$C$2:C197)*1</f>
@@ -12858,7 +12858,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="198" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A198" s="46"/>
       <c r="B198" s="12">
         <f>SUBTOTAL(3,$C$2:C198)*1</f>
@@ -12892,7 +12892,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="199" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A199" s="46"/>
       <c r="B199" s="12">
         <f>SUBTOTAL(3,$C$2:C199)*1</f>
@@ -12926,7 +12926,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="200" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A200" s="46"/>
       <c r="B200" s="12">
         <f>SUBTOTAL(3,$C$2:C200)*1</f>
@@ -12968,7 +12968,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="201" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A201" s="46"/>
       <c r="B201" s="12">
         <f>SUBTOTAL(3,$C$2:C201)*1</f>
@@ -13012,7 +13012,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="202" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A202" s="46"/>
       <c r="B202" s="12">
         <f>SUBTOTAL(3,$C$2:C202)*1</f>
@@ -13046,7 +13046,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="203" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A203" s="46"/>
       <c r="B203" s="12">
         <f>SUBTOTAL(3,$C$2:C203)*1</f>
@@ -13080,7 +13080,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="204" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A204" s="46"/>
       <c r="B204" s="12">
         <f>SUBTOTAL(3,$C$2:C204)*1</f>
@@ -13114,7 +13114,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="205" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A205" s="46"/>
       <c r="B205" s="12">
         <f>SUBTOTAL(3,$C$2:C205)*1</f>
@@ -13158,7 +13158,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="206" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A206" s="46"/>
       <c r="B206" s="12">
         <f>SUBTOTAL(3,$C$2:C206)*1</f>
@@ -13202,7 +13202,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="207" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A207" s="46"/>
       <c r="B207" s="12">
         <f>SUBTOTAL(3,$C$2:C207)*1</f>
@@ -13246,7 +13246,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="208" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A208" s="46"/>
       <c r="B208" s="12">
         <f>SUBTOTAL(3,$C$2:C208)*1</f>
@@ -13280,7 +13280,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="209" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A209" s="45" t="s">
         <v>1283</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="210" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A210" s="46"/>
       <c r="B210" s="12">
         <f>SUBTOTAL(3,$C$2:C210)*1</f>
@@ -13356,7 +13356,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="211" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A211" s="46"/>
       <c r="B211" s="12">
         <f>SUBTOTAL(3,$C$2:C211)*1</f>
@@ -13390,7 +13390,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="212" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A212" s="46"/>
       <c r="B212" s="12">
         <f>SUBTOTAL(3,$C$2:C212)*1</f>
@@ -13434,7 +13434,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="213" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A213" s="46"/>
       <c r="B213" s="12">
         <f>SUBTOTAL(3,$C$2:C213)*1</f>
@@ -13476,7 +13476,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="214" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A214" s="46"/>
       <c r="B214" s="12">
         <f>SUBTOTAL(3,$C$2:C214)*1</f>
@@ -13510,7 +13510,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="215" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A215" s="46"/>
       <c r="B215" s="12">
         <f>SUBTOTAL(3,$C$2:C215)*1</f>
@@ -13552,7 +13552,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="216" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A216" s="46"/>
       <c r="B216" s="12">
         <f>SUBTOTAL(3,$C$2:C216)*1</f>
@@ -13596,7 +13596,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="217" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A217" s="46"/>
       <c r="B217" s="12">
         <f>SUBTOTAL(3,$C$2:C217)*1</f>
@@ -13630,7 +13630,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="218" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A218" s="46"/>
       <c r="B218" s="12">
         <f>SUBTOTAL(3,$C$2:C218)*1</f>
@@ -13664,7 +13664,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="219" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A219" s="46"/>
       <c r="B219" s="12">
         <f>SUBTOTAL(3,$C$2:C219)*1</f>
@@ -13708,7 +13708,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="220" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A220" s="46"/>
       <c r="B220" s="12">
         <f>SUBTOTAL(3,$C$2:C220)*1</f>
@@ -13742,7 +13742,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="221" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A221" s="46"/>
       <c r="B221" s="12">
         <f>SUBTOTAL(3,$C$2:C221)*1</f>
@@ -13786,7 +13786,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="222" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A222" s="46" t="s">
         <v>1283</v>
       </c>
@@ -13832,7 +13832,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="223" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A223" s="46"/>
       <c r="B223" s="12">
         <f>SUBTOTAL(3,$C$2:C223)*1</f>
@@ -13876,7 +13876,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="224" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A224" s="46"/>
       <c r="B224" s="12">
         <f>SUBTOTAL(3,$C$2:C224)*1</f>
@@ -13910,7 +13910,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="225" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A225" s="46"/>
       <c r="B225" s="12">
         <f>SUBTOTAL(3,$C$2:C225)*1</f>
@@ -13944,7 +13944,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="226" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A226" s="46"/>
       <c r="B226" s="12">
         <f>SUBTOTAL(3,$C$2:C226)*1</f>
@@ -13978,7 +13978,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="227" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A227" s="46"/>
       <c r="B227" s="12">
         <f>SUBTOTAL(3,$C$2:C227)*1</f>
@@ -14012,7 +14012,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="228" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A228" s="46"/>
       <c r="B228" s="12">
         <f>SUBTOTAL(3,$C$2:C228)*1</f>
@@ -14046,7 +14046,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="229" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A229" s="46"/>
       <c r="B229" s="12">
         <f>SUBTOTAL(3,$C$2:C229)*1</f>
@@ -14080,7 +14080,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="230" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A230" s="46"/>
       <c r="B230" s="12">
         <f>SUBTOTAL(3,$C$2:C230)*1</f>
@@ -14114,7 +14114,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="231" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A231" s="46"/>
       <c r="B231" s="12">
         <f>SUBTOTAL(3,$C$2:C231)*1</f>
@@ -14148,7 +14148,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="232" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A232" s="46"/>
       <c r="B232" s="12">
         <f>SUBTOTAL(3,$C$2:C232)*1</f>
@@ -14192,7 +14192,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="233" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A233" s="46"/>
       <c r="B233" s="12">
         <f>SUBTOTAL(3,$C$2:C233)*1</f>
@@ -14226,7 +14226,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="234" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A234" s="46"/>
       <c r="B234" s="12">
         <f>SUBTOTAL(3,$C$2:C234)*1</f>
@@ -14270,7 +14270,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="235" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A235" s="46"/>
       <c r="B235" s="12">
         <f>SUBTOTAL(3,$C$2:C235)*1</f>
@@ -14304,7 +14304,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="236" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A236" s="46"/>
       <c r="B236" s="12">
         <f>SUBTOTAL(3,$C$2:C236)*1</f>
@@ -14348,7 +14348,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="237" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A237" s="46"/>
       <c r="B237" s="12">
         <f>SUBTOTAL(3,$C$2:C237)*1</f>
@@ -14392,7 +14392,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="238" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A238" s="46"/>
       <c r="B238" s="12">
         <f>SUBTOTAL(3,$C$2:C238)*1</f>
@@ -14436,7 +14436,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="239" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A239" s="46"/>
       <c r="B239" s="12">
         <f>SUBTOTAL(3,$C$2:C239)*1</f>
@@ -14480,7 +14480,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="240" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A240" s="46" t="s">
         <v>1283</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="241" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A241" s="46"/>
       <c r="B241" s="12">
         <f>SUBTOTAL(3,$C$2:C241)*1</f>
@@ -14558,7 +14558,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="242" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A242" s="46" t="s">
         <v>1283</v>
       </c>
@@ -14602,7 +14602,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="243" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A243" s="46"/>
       <c r="B243" s="12">
         <f>SUBTOTAL(3,$C$2:C243)*1</f>
@@ -14646,7 +14646,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="244" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A244" s="46"/>
       <c r="B244" s="12">
         <f>SUBTOTAL(3,$C$2:C244)*1</f>
@@ -14690,7 +14690,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="245" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A245" s="46"/>
       <c r="B245" s="12">
         <f>SUBTOTAL(3,$C$2:C245)*1</f>
@@ -14734,7 +14734,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="246" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A246" s="46"/>
       <c r="B246" s="12">
         <f>SUBTOTAL(3,$C$2:C246)*1</f>
@@ -14768,7 +14768,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="247" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A247" s="46" t="s">
         <v>1283</v>
       </c>
@@ -14812,7 +14812,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="248" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A248" s="46"/>
       <c r="B248" s="12">
         <f>SUBTOTAL(3,$C$2:C248)*1</f>
@@ -14846,7 +14846,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="249" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A249" s="46"/>
       <c r="B249" s="12">
         <f>SUBTOTAL(3,$C$2:C249)*1</f>
@@ -14880,7 +14880,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="250" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A250" s="46"/>
       <c r="B250" s="12">
         <f>SUBTOTAL(3,$C$2:C250)*1</f>
@@ -14924,7 +14924,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="251" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A251" s="46"/>
       <c r="B251" s="12">
         <f>SUBTOTAL(3,$C$2:C251)*1</f>
@@ -14958,7 +14958,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="252" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A252" s="46"/>
       <c r="B252" s="12">
         <f>SUBTOTAL(3,$C$2:C252)*1</f>
@@ -14992,7 +14992,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="253" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A253" s="46"/>
       <c r="B253" s="12">
         <f>SUBTOTAL(3,$C$2:C253)*1</f>
@@ -15036,7 +15036,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="254" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A254" s="46"/>
       <c r="B254" s="12">
         <f>SUBTOTAL(3,$C$2:C254)*1</f>
@@ -15070,7 +15070,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="255" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A255" s="46"/>
       <c r="B255" s="12">
         <f>SUBTOTAL(3,$C$2:C255)*1</f>
@@ -15114,7 +15114,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="256" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A256" s="46"/>
       <c r="B256" s="12">
         <f>SUBTOTAL(3,$C$2:C256)*1</f>
@@ -15156,7 +15156,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="257" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A257" s="46"/>
       <c r="B257" s="12">
         <f>SUBTOTAL(3,$C$2:C257)*1</f>
@@ -15190,7 +15190,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="258" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A258" s="46"/>
       <c r="B258" s="12">
         <f>SUBTOTAL(3,$C$2:C258)*1</f>
@@ -15234,7 +15234,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="259" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A259" s="46" t="s">
         <v>1283</v>
       </c>
@@ -15280,7 +15280,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="260" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A260" s="46"/>
       <c r="B260" s="12">
         <f>SUBTOTAL(3,$C$2:C260)*1</f>
@@ -15322,7 +15322,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="261" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A261" s="46"/>
       <c r="B261" s="12">
         <f>SUBTOTAL(3,$C$2:C261)*1</f>
@@ -15366,7 +15366,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="262" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A262" s="46"/>
       <c r="B262" s="12">
         <f>SUBTOTAL(3,$C$2:C262)*1</f>
@@ -15400,7 +15400,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="263" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A263" s="46"/>
       <c r="B263" s="12">
         <f>SUBTOTAL(3,$C$2:C263)*1</f>
@@ -15434,7 +15434,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="264" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A264" s="46"/>
       <c r="B264" s="12">
         <f>SUBTOTAL(3,$C$2:C264)*1</f>
@@ -15468,7 +15468,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="265" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A265" s="46"/>
       <c r="B265" s="12">
         <f>SUBTOTAL(3,$C$2:C265)*1</f>
@@ -15512,7 +15512,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="266" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A266" s="46"/>
       <c r="B266" s="12">
         <f>SUBTOTAL(3,$C$2:C266)*1</f>
@@ -15546,7 +15546,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="267" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A267" s="46"/>
       <c r="B267" s="12">
         <f>SUBTOTAL(3,$C$2:C267)*1</f>
@@ -15580,7 +15580,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="268" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A268" s="46"/>
       <c r="B268" s="12">
         <f>SUBTOTAL(3,$C$2:C268)*1</f>
@@ -15624,7 +15624,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="269" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A269" s="46"/>
       <c r="B269" s="12">
         <f>SUBTOTAL(3,$C$2:C269)*1</f>
@@ -15658,7 +15658,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="270" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A270" s="46"/>
       <c r="B270" s="12">
         <f>SUBTOTAL(3,$C$2:C270)*1</f>
@@ -15692,7 +15692,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="271" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A271" s="46"/>
       <c r="B271" s="12">
         <f>SUBTOTAL(3,$C$2:C271)*1</f>
@@ -15734,7 +15734,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="272" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A272" s="46"/>
       <c r="B272" s="12">
         <f>SUBTOTAL(3,$C$2:C272)*1</f>
@@ -15778,7 +15778,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="273" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A273" s="46"/>
       <c r="B273" s="12">
         <f>SUBTOTAL(3,$C$2:C273)*1</f>
@@ -15822,7 +15822,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="274" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A274" s="46"/>
       <c r="B274" s="12">
         <f>SUBTOTAL(3,$C$2:C274)*1</f>
@@ -15866,7 +15866,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="275" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A275" s="46"/>
       <c r="B275" s="12">
         <f>SUBTOTAL(3,$C$2:C275)*1</f>
@@ -15900,7 +15900,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="276" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A276" s="46" t="s">
         <v>1283</v>
       </c>
@@ -15946,7 +15946,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="277" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A277" s="46"/>
       <c r="B277" s="12">
         <f>SUBTOTAL(3,$C$2:C277)*1</f>
@@ -15990,7 +15990,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="278" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A278" s="46"/>
       <c r="B278" s="12">
         <f>SUBTOTAL(3,$C$2:C278)*1</f>
@@ -16024,7 +16024,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="279" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A279" s="46"/>
       <c r="B279" s="12">
         <f>SUBTOTAL(3,$C$2:C279)*1</f>
@@ -16057,7 +16057,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="280" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A280" s="46"/>
       <c r="B280" s="12">
         <f>SUBTOTAL(3,$C$2:C280)*1</f>
@@ -16101,7 +16101,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="281" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A281" s="46"/>
       <c r="B281" s="12">
         <f>SUBTOTAL(3,$C$2:C281)*1</f>
@@ -16135,7 +16135,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="282" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A282" s="46"/>
       <c r="B282" s="12">
         <f>SUBTOTAL(3,$C$2:C282)*1</f>
@@ -16169,7 +16169,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="283" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A283" s="46"/>
       <c r="B283" s="12">
         <f>SUBTOTAL(3,$C$2:C283)*1</f>
@@ -16213,7 +16213,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="284" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A284" s="46" t="s">
         <v>1283</v>
       </c>
@@ -16259,7 +16259,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="285" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A285" s="46"/>
       <c r="B285" s="12">
         <f>SUBTOTAL(3,$C$2:C285)*1</f>
@@ -16293,7 +16293,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="286" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A286" s="46"/>
       <c r="B286" s="12">
         <f>SUBTOTAL(3,$C$2:C286)*1</f>
@@ -16327,7 +16327,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="287" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A287" s="46"/>
       <c r="B287" s="12">
         <f>SUBTOTAL(3,$C$2:C287)*1</f>
@@ -16361,7 +16361,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="288" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A288" s="46"/>
       <c r="B288" s="12">
         <f>SUBTOTAL(3,$C$2:C288)*1</f>
@@ -16405,7 +16405,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="289" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A289" s="46" t="s">
         <v>1283</v>
       </c>
@@ -16451,7 +16451,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="290" spans="1:16" s="35" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:16" s="35" customFormat="1" ht="33" customHeight="1">
       <c r="A290" s="15"/>
       <c r="B290" s="12">
         <f>SUBTOTAL(3,$C$2:C290)*1</f>
@@ -16487,7 +16487,7 @@
       <c r="O290" s="34"/>
       <c r="P290" s="34"/>
     </row>
-    <row r="291" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A291" s="46"/>
       <c r="B291" s="12">
         <f>SUBTOTAL(3,$C$2:C291)*1</f>
@@ -16521,7 +16521,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="292" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A292" s="46"/>
       <c r="B292" s="12">
         <f>SUBTOTAL(3,$C$2:C292)*1</f>
@@ -16555,7 +16555,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="293" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A293" s="46"/>
       <c r="B293" s="12">
         <f>SUBTOTAL(3,$C$2:C293)*1</f>
@@ -16599,7 +16599,7 @@
       <c r="O293" s="35"/>
       <c r="P293" s="35"/>
     </row>
-    <row r="294" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A294" s="46"/>
       <c r="B294" s="12">
         <f>SUBTOTAL(3,$C$2:C294)*1</f>
@@ -16641,7 +16641,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="295" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A295" s="46"/>
       <c r="B295" s="12">
         <f>SUBTOTAL(3,$C$2:C295)*1</f>
@@ -16675,7 +16675,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="296" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A296" s="46"/>
       <c r="B296" s="12">
         <f>SUBTOTAL(3,$C$2:C296)*1</f>
@@ -16709,7 +16709,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="297" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A297" s="46"/>
       <c r="B297" s="12">
         <f>SUBTOTAL(3,$C$2:C297)*1</f>
@@ -16743,7 +16743,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="298" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A298" s="46"/>
       <c r="B298" s="12">
         <f>SUBTOTAL(3,$C$2:C298)*1</f>
@@ -16777,7 +16777,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="299" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A299" s="46"/>
       <c r="B299" s="12">
         <f>SUBTOTAL(3,$C$2:C299)*1</f>
@@ -16811,7 +16811,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="300" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A300" s="46"/>
       <c r="B300" s="12">
         <f>SUBTOTAL(3,$C$2:C300)*1</f>
@@ -16855,7 +16855,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="301" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A301" s="46"/>
       <c r="B301" s="12">
         <f>SUBTOTAL(3,$C$2:C301)*1</f>
@@ -16889,7 +16889,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="302" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A302" s="46"/>
       <c r="B302" s="12">
         <f>SUBTOTAL(3,$C$2:C302)*1</f>
@@ -16923,7 +16923,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="303" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A303" s="46"/>
       <c r="B303" s="12">
         <f>SUBTOTAL(3,$C$2:C303)*1</f>
@@ -16957,7 +16957,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="304" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A304" s="46"/>
       <c r="B304" s="12">
         <f>SUBTOTAL(3,$C$2:C304)*1</f>
@@ -17001,7 +17001,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="305" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A305" s="46"/>
       <c r="B305" s="12">
         <f>SUBTOTAL(3,$C$2:C305)*1</f>
@@ -17035,7 +17035,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="306" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A306" s="46"/>
       <c r="B306" s="12">
         <f>SUBTOTAL(3,$C$2:C306)*1</f>
@@ -17069,7 +17069,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="307" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A307" s="46"/>
       <c r="B307" s="12">
         <f>SUBTOTAL(3,$C$2:C307)*1</f>
@@ -17103,7 +17103,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="308" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A308" s="46"/>
       <c r="B308" s="12">
         <f>SUBTOTAL(3,$C$2:C308)*1</f>
@@ -17137,7 +17137,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="309" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A309" s="46"/>
       <c r="B309" s="12">
         <f>SUBTOTAL(3,$C$2:C309)*1</f>
@@ -17181,7 +17181,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="310" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A310" s="46"/>
       <c r="B310" s="12">
         <f>SUBTOTAL(3,$C$2:C310)*1</f>
@@ -17225,7 +17225,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="311" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A311" s="46"/>
       <c r="B311" s="12">
         <f>SUBTOTAL(3,$C$2:C311)*1</f>
@@ -17269,7 +17269,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="312" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A312" s="46"/>
       <c r="B312" s="12">
         <f>SUBTOTAL(3,$C$2:C312)*1</f>
@@ -17313,7 +17313,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="313" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A313" s="46"/>
       <c r="B313" s="12">
         <f>SUBTOTAL(3,$C$2:C313)*1</f>
@@ -17347,7 +17347,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="314" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A314" s="46"/>
       <c r="B314" s="12">
         <f>SUBTOTAL(3,$C$2:C314)*1</f>
@@ -17381,7 +17381,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="315" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A315" s="46"/>
       <c r="B315" s="12">
         <f>SUBTOTAL(3,$C$2:C315)*1</f>
@@ -17415,7 +17415,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="316" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A316" s="46"/>
       <c r="B316" s="12">
         <f>SUBTOTAL(3,$C$2:C316)*1</f>
@@ -17449,7 +17449,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="317" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A317" s="46"/>
       <c r="B317" s="12">
         <f>SUBTOTAL(3,$C$2:C317)*1</f>
@@ -17493,7 +17493,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="318" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A318" s="46"/>
       <c r="B318" s="12">
         <f>SUBTOTAL(3,$C$2:C318)*1</f>
@@ -17527,7 +17527,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="319" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A319" s="46"/>
       <c r="B319" s="12">
         <f>SUBTOTAL(3,$C$2:C319)*1</f>
@@ -17571,7 +17571,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="320" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A320" s="46"/>
       <c r="B320" s="12">
         <f>SUBTOTAL(3,$C$2:C320)*1</f>
@@ -17605,7 +17605,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="321" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A321" s="46"/>
       <c r="B321" s="12">
         <f>SUBTOTAL(3,$C$2:C321)*1</f>
@@ -17639,7 +17639,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="322" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A322" s="46"/>
       <c r="B322" s="12">
         <f>SUBTOTAL(3,$C$2:C322)*1</f>
@@ -17683,7 +17683,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="323" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A323" s="46" t="s">
         <v>1283</v>
       </c>
@@ -17729,7 +17729,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="324" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A324" s="46" t="s">
         <v>1283</v>
       </c>
@@ -17773,7 +17773,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="325" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A325" s="46"/>
       <c r="B325" s="12">
         <f>SUBTOTAL(3,$C$2:C325)*1</f>
@@ -17807,7 +17807,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="326" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A326" s="46"/>
       <c r="B326" s="12">
         <f>SUBTOTAL(3,$C$2:C326)*1</f>
@@ -17851,7 +17851,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="327" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A327" s="46"/>
       <c r="B327" s="12">
         <f>SUBTOTAL(3,$C$2:C327)*1</f>
@@ -17885,7 +17885,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="328" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A328" s="46"/>
       <c r="B328" s="12">
         <f>SUBTOTAL(3,$C$2:C328)*1</f>
@@ -17919,7 +17919,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="329" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A329" s="46"/>
       <c r="B329" s="12">
         <f>SUBTOTAL(3,$C$2:C329)*1</f>
@@ -17963,7 +17963,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="330" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A330" s="46"/>
       <c r="B330" s="12">
         <f>SUBTOTAL(3,$C$2:C330)*1</f>
@@ -17997,7 +17997,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="331" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A331" s="46"/>
       <c r="B331" s="12">
         <f>SUBTOTAL(3,$C$2:C331)*1</f>
@@ -18041,7 +18041,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="332" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A332" s="46"/>
       <c r="B332" s="12">
         <f>SUBTOTAL(3,$C$2:C332)*1</f>
@@ -18075,7 +18075,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="333" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A333" s="46"/>
       <c r="B333" s="12">
         <f>SUBTOTAL(3,$C$2:C333)*1</f>
@@ -18109,7 +18109,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="334" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A334" s="46"/>
       <c r="B334" s="12">
         <f>SUBTOTAL(3,$C$2:C334)*1</f>
@@ -18143,7 +18143,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="335" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A335" s="46"/>
       <c r="B335" s="12">
         <f>SUBTOTAL(3,$C$2:C335)*1</f>
@@ -18177,7 +18177,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="336" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A336" s="46"/>
       <c r="B336" s="12">
         <f>SUBTOTAL(3,$C$2:C336)*1</f>
@@ -18221,7 +18221,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="337" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A337" s="46"/>
       <c r="B337" s="12">
         <f>SUBTOTAL(3,$C$2:C337)*1</f>
@@ -18265,7 +18265,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="338" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A338" s="46"/>
       <c r="B338" s="12">
         <f>SUBTOTAL(3,$C$2:C338)*1</f>
@@ -18299,7 +18299,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="339" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A339" s="46"/>
       <c r="B339" s="12">
         <f>SUBTOTAL(3,$C$2:C339)*1</f>
@@ -18343,7 +18343,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="340" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A340" s="46"/>
       <c r="B340" s="12">
         <f>SUBTOTAL(3,$C$2:C340)*1</f>
@@ -18387,7 +18387,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="341" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A341" s="46"/>
       <c r="B341" s="12">
         <f>SUBTOTAL(3,$C$2:C341)*1</f>
@@ -18431,7 +18431,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="342" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A342" s="46"/>
       <c r="B342" s="12">
         <f>SUBTOTAL(3,$C$2:C342)*1</f>
@@ -18465,7 +18465,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="343" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A343" s="46"/>
       <c r="B343" s="12">
         <f>SUBTOTAL(3,$C$2:C343)*1</f>
@@ -18509,7 +18509,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="344" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A344" s="46"/>
       <c r="B344" s="12">
         <f>SUBTOTAL(3,$C$2:C344)*1</f>
@@ -18553,7 +18553,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="345" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A345" s="46"/>
       <c r="B345" s="12">
         <f>SUBTOTAL(3,$C$2:C345)*1</f>
@@ -18597,7 +18597,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="346" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A346" s="46"/>
       <c r="B346" s="12">
         <f>SUBTOTAL(3,$C$2:C346)*1</f>
@@ -18631,7 +18631,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="347" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A347" s="46"/>
       <c r="B347" s="12">
         <f>SUBTOTAL(3,$C$2:C347)*1</f>
@@ -18675,7 +18675,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="348" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A348" s="46"/>
       <c r="B348" s="12">
         <f>SUBTOTAL(3,$C$2:C348)*1</f>
@@ -18709,7 +18709,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="349" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A349" s="46"/>
       <c r="B349" s="12">
         <f>SUBTOTAL(3,$C$2:C349)*1</f>
@@ -18753,7 +18753,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="350" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A350" s="46"/>
       <c r="B350" s="12">
         <f>SUBTOTAL(3,$C$2:C350)*1</f>
@@ -18791,7 +18791,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="351" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A351" s="46"/>
       <c r="B351" s="12">
         <f>SUBTOTAL(3,$C$2:C351)*1</f>
@@ -18835,7 +18835,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="352" spans="1:16" s="35" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:16" s="35" customFormat="1" ht="33" customHeight="1">
       <c r="A352" s="15"/>
       <c r="B352" s="12">
         <f>SUBTOTAL(3,$C$2:C352)*1</f>
@@ -18879,7 +18879,7 @@
       <c r="O352" s="34"/>
       <c r="P352" s="34"/>
     </row>
-    <row r="353" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A353" s="46"/>
       <c r="B353" s="12">
         <f>SUBTOTAL(3,$C$2:C353)*1</f>
@@ -18921,7 +18921,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="354" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A354" s="46"/>
       <c r="B354" s="12">
         <f>SUBTOTAL(3,$C$2:C354)*1</f>
@@ -18965,7 +18965,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="355" spans="1:16" s="35" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:16" s="35" customFormat="1" ht="33" customHeight="1">
       <c r="A355" s="15"/>
       <c r="B355" s="12">
         <f>SUBTOTAL(3,$C$2:C355)*1</f>
@@ -18999,7 +18999,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="356" spans="1:16" s="35" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:16" s="35" customFormat="1" ht="33" customHeight="1">
       <c r="A356" s="15"/>
       <c r="B356" s="12">
         <f>SUBTOTAL(3,$C$2:C356)*1</f>
@@ -19045,7 +19045,7 @@
       <c r="O356" s="34"/>
       <c r="P356" s="34"/>
     </row>
-    <row r="357" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A357" s="46"/>
       <c r="B357" s="12">
         <f>SUBTOTAL(3,$C$2:C357)*1</f>
@@ -19079,7 +19079,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="358" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A358" s="46"/>
       <c r="B358" s="12">
         <f>SUBTOTAL(3,$C$2:C358)*1</f>
@@ -19125,7 +19125,7 @@
       <c r="O358" s="35"/>
       <c r="P358" s="35"/>
     </row>
-    <row r="359" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A359" s="46"/>
       <c r="B359" s="12">
         <f>SUBTOTAL(3,$C$2:C359)*1</f>
@@ -19171,7 +19171,7 @@
       <c r="O359" s="35"/>
       <c r="P359" s="35"/>
     </row>
-    <row r="360" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A360" s="46"/>
       <c r="B360" s="12">
         <f>SUBTOTAL(3,$C$2:C360)*1</f>
@@ -19215,7 +19215,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="361" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A361" s="46"/>
       <c r="B361" s="12">
         <f>SUBTOTAL(3,$C$2:C361)*1</f>
@@ -19259,7 +19259,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="362" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A362" s="46"/>
       <c r="B362" s="12">
         <f>SUBTOTAL(3,$C$2:C362)*1</f>
@@ -19303,7 +19303,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="363" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A363" s="46"/>
       <c r="B363" s="12">
         <f>SUBTOTAL(3,$C$2:C363)*1</f>
@@ -19347,7 +19347,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="364" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A364" s="46"/>
       <c r="B364" s="12">
         <f>SUBTOTAL(3,$C$2:C364)*1</f>
@@ -19391,7 +19391,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="365" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A365" s="46"/>
       <c r="B365" s="12">
         <f>SUBTOTAL(3,$C$2:C365)*1</f>
@@ -19435,7 +19435,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="366" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A366" s="46" t="s">
         <v>1283</v>
       </c>
@@ -19481,7 +19481,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="367" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A367" s="46"/>
       <c r="B367" s="12">
         <f>SUBTOTAL(3,$C$2:C367)*1</f>
@@ -19525,7 +19525,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="368" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A368" s="46"/>
       <c r="B368" s="12">
         <f>SUBTOTAL(3,$C$2:C368)*1</f>
@@ -19569,7 +19569,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="369" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A369" s="46"/>
       <c r="B369" s="12">
         <f>SUBTOTAL(3,$C$2:C369)*1</f>
@@ -19613,7 +19613,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="370" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A370" s="46"/>
       <c r="B370" s="12">
         <f>SUBTOTAL(3,$C$2:C370)*1</f>
@@ -19657,7 +19657,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="371" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A371" s="46"/>
       <c r="B371" s="12">
         <f>SUBTOTAL(3,$C$2:C371)*1</f>
@@ -19701,7 +19701,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="372" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A372" s="46"/>
       <c r="B372" s="12">
         <f>SUBTOTAL(3,$C$2:C372)*1</f>
@@ -19745,7 +19745,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="373" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A373" s="46"/>
       <c r="B373" s="12">
         <f>SUBTOTAL(3,$C$2:C373)*1</f>
@@ -19789,7 +19789,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="374" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A374" s="46"/>
       <c r="B374" s="12">
         <f>SUBTOTAL(3,$C$2:C374)*1</f>
@@ -19833,7 +19833,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="375" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A375" s="46"/>
       <c r="B375" s="12">
         <f>SUBTOTAL(3,$C$2:C375)*1</f>
@@ -19877,7 +19877,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="376" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A376" s="46"/>
       <c r="B376" s="12">
         <f>SUBTOTAL(3,$C$2:C376)*1</f>
@@ -19921,7 +19921,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="377" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A377" s="46"/>
       <c r="B377" s="12">
         <f>SUBTOTAL(3,$C$2:C377)*1</f>
@@ -19955,7 +19955,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="378" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A378" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20001,7 +20001,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="379" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A379" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20047,7 +20047,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="380" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A380" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20094,7 +20094,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="381" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A381" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20140,7 +20140,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="382" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A382" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20186,7 +20186,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="383" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A383" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20233,7 +20233,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="384" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A384" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20280,7 +20280,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="385" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A385" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20327,7 +20327,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="386" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A386" s="46"/>
       <c r="B386" s="12">
         <f>SUBTOTAL(3,$C$1:C386)*1</f>
@@ -20372,7 +20372,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="387" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A387" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20419,7 +20419,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="388" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A388" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20466,7 +20466,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="389" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A389" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20513,7 +20513,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="390" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A390" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20558,7 +20558,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="391" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A391" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="392" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A392" s="46"/>
       <c r="B392" s="12">
         <f>SUBTOTAL(3,$C$1:C392)*1</f>
@@ -20650,7 +20650,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="393" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A393" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20697,7 +20697,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="394" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A394" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20741,7 +20741,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="395" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A395" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20787,7 +20787,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="396" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
       <c r="A396" s="46" t="s">
         <v>1283</v>
       </c>

--- a/DocsWeb/(正式3)111年委員專長-2.xlsx
+++ b/DocsWeb/(正式3)111年委員專長-2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\DocsWeb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\demo_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE34A1B-C38C-4463-879D-6F0BF3EB55DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21277C2-0B41-43A9-BEBE-7246CE7734E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{10A2B73F-5715-498C-8185-EC7965AF6250}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="1288">
   <si>
     <t>張瓊芬</t>
   </si>
@@ -4838,6 +4838,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -4854,15 +4858,33 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="4"/>
+        <family val="1"/>
       </rPr>
       <t>_Env_111</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>能源署
-出現次數_Eng_111</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>能源署
+出現次數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t>_Eng_111</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4893,7 +4915,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4995,7 +5017,7 @@
       <family val="4"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5005,6 +5027,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5041,7 +5069,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5201,6 +5229,9 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -5220,9 +5251,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5260,7 +5291,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5366,7 +5397,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5508,7 +5539,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5522,7 +5553,7 @@
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.453125" style="22" customWidth="1"/>
     <col min="2" max="2" width="6" style="22" customWidth="1"/>
@@ -5536,7 +5567,7 @@
     <col min="14" max="14" width="0" style="23" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="51">
+    <row r="1" spans="1:14" ht="49.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1272</v>
       </c>
@@ -5562,13 +5593,13 @@
         <v>1279</v>
       </c>
       <c r="I1" s="52" t="s">
-        <v>1284</v>
-      </c>
-      <c r="J1" s="6" t="s">
         <v>1285</v>
       </c>
+      <c r="J1" s="52" t="s">
+        <v>1286</v>
+      </c>
       <c r="K1" s="52" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>1280</v>
@@ -5580,7 +5611,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="25" customFormat="1" ht="33" customHeight="1">
+    <row r="2" spans="1:14" s="25" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="48"/>
       <c r="B2" s="4">
         <f>SUBTOTAL(3,$C$2:C2)*1</f>
@@ -5616,7 +5647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="3" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="49"/>
       <c r="B3" s="4">
         <f>SUBTOTAL(3,$C$2:C3)*1</f>
@@ -5652,7 +5683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="4" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="49"/>
       <c r="B4" s="4">
         <f>SUBTOTAL(3,$C$2:C4)*1</f>
@@ -5688,7 +5719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="5" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="49"/>
       <c r="B5" s="4">
         <f>SUBTOTAL(3,$C$2:C5)*1</f>
@@ -5724,7 +5755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="6" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="49"/>
       <c r="B6" s="4">
         <f>SUBTOTAL(3,$C$2:C6)*1</f>
@@ -5760,7 +5791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="7" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="49"/>
       <c r="B7" s="4">
         <f>SUBTOTAL(3,$C$2:C7)*1</f>
@@ -5796,7 +5827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="8" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="49"/>
       <c r="B8" s="4">
         <f>SUBTOTAL(3,$C$2:C8)*1</f>
@@ -5832,7 +5863,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="9" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="49"/>
       <c r="B9" s="4">
         <f>SUBTOTAL(3,$C$2:C9)*1</f>
@@ -5868,7 +5899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="10" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="49"/>
       <c r="B10" s="4">
         <f>SUBTOTAL(3,$C$2:C10)*1</f>
@@ -5904,7 +5935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="11" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="49"/>
       <c r="B11" s="4">
         <f>SUBTOTAL(3,$C$2:C11)*1</f>
@@ -5940,7 +5971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="12" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="49"/>
       <c r="B12" s="4">
         <f>SUBTOTAL(3,$C$2:C12)*1</f>
@@ -5976,7 +6007,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="13" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="49"/>
       <c r="B13" s="4">
         <f>SUBTOTAL(3,$C$2:C13)*1</f>
@@ -6012,7 +6043,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="14" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="49"/>
       <c r="B14" s="4">
         <f>SUBTOTAL(3,$C$2:C14)*1</f>
@@ -6048,7 +6079,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="15" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="49"/>
       <c r="B15" s="4">
         <f>SUBTOTAL(3,$C$2:C15)*1</f>
@@ -6084,7 +6115,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="16" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="49"/>
       <c r="B16" s="4">
         <f>SUBTOTAL(3,$C$2:C16)*1</f>
@@ -6120,7 +6151,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="17" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="49"/>
       <c r="B17" s="4">
         <f>SUBTOTAL(3,$C$2:C17)*1</f>
@@ -6156,7 +6187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="18" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="49"/>
       <c r="B18" s="4">
         <f>SUBTOTAL(3,$C$2:C18)*1</f>
@@ -6192,7 +6223,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="19" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="49"/>
       <c r="B19" s="4">
         <f>SUBTOTAL(3,$C$2:C19)*1</f>
@@ -6228,7 +6259,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="20" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="49"/>
       <c r="B20" s="4">
         <f>SUBTOTAL(3,$C$2:C20)*1</f>
@@ -6264,7 +6295,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="21" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="49"/>
       <c r="B21" s="4">
         <f>SUBTOTAL(3,$C$2:C21)*1</f>
@@ -6300,7 +6331,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="22" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="49"/>
       <c r="B22" s="4">
         <f>SUBTOTAL(3,$C$2:C22)*1</f>
@@ -6336,7 +6367,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="23" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="49"/>
       <c r="B23" s="4">
         <f>SUBTOTAL(3,$C$2:C23)*1</f>
@@ -6372,7 +6403,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="24" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="49"/>
       <c r="B24" s="4">
         <f>SUBTOTAL(3,$C$2:C24)*1</f>
@@ -6408,7 +6439,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="25" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="49"/>
       <c r="B25" s="4">
         <f>SUBTOTAL(3,$C$2:C25)*1</f>
@@ -6444,7 +6475,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="26" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="49"/>
       <c r="B26" s="4">
         <f>SUBTOTAL(3,$C$2:C26)*1</f>
@@ -6480,7 +6511,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="27" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="49"/>
       <c r="B27" s="4">
         <f>SUBTOTAL(3,$C$2:C27)*1</f>
@@ -6516,7 +6547,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="28" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="49"/>
       <c r="B28" s="4">
         <f>SUBTOTAL(3,$C$2:C28)*1</f>
@@ -6552,7 +6583,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="29" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="49"/>
       <c r="B29" s="4">
         <f>SUBTOTAL(3,$C$2:C29)*1</f>
@@ -6588,7 +6619,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="30" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="49"/>
       <c r="B30" s="4">
         <f>SUBTOTAL(3,$C$2:C30)*1</f>
@@ -6624,7 +6655,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="31" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="49"/>
       <c r="B31" s="4">
         <f>SUBTOTAL(3,$C$2:C31)*1</f>
@@ -6660,7 +6691,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="32" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="49"/>
       <c r="B32" s="4">
         <f>SUBTOTAL(3,$C$2:C32)*1</f>
@@ -6696,7 +6727,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="33" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="49"/>
       <c r="B33" s="4">
         <f>SUBTOTAL(3,$C$2:C33)*1</f>
@@ -6732,7 +6763,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="34" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="49"/>
       <c r="B34" s="4">
         <f>SUBTOTAL(3,$C$2:C34)*1</f>
@@ -6768,7 +6799,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="35" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="49"/>
       <c r="B35" s="4">
         <f>SUBTOTAL(3,$C$2:C35)*1</f>
@@ -6804,7 +6835,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="36" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="49"/>
       <c r="B36" s="4">
         <f>SUBTOTAL(3,$C$2:C36)*1</f>
@@ -6840,7 +6871,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="37" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="49"/>
       <c r="B37" s="4">
         <f>SUBTOTAL(3,$C$2:C37)*1</f>
@@ -6876,7 +6907,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="38" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="49"/>
       <c r="B38" s="4">
         <f>SUBTOTAL(3,$C$2:C38)*1</f>
@@ -6912,7 +6943,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="39" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="49"/>
       <c r="B39" s="4">
         <f>SUBTOTAL(3,$C$2:C39)*1</f>
@@ -6948,7 +6979,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="40" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="49"/>
       <c r="B40" s="4">
         <f>SUBTOTAL(3,$C$2:C40)*1</f>
@@ -6982,7 +7013,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1">
+    <row r="41" spans="1:14" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="49"/>
       <c r="B41" s="4">
         <f>SUBTOTAL(3,$C$2:C41)*1</f>
@@ -7016,7 +7047,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1">
+    <row r="42" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="51"/>
       <c r="B42" s="4">
         <f>SUBTOTAL(3,$C$2:C42)*1</f>
@@ -7060,7 +7091,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1">
+    <row r="43" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="51"/>
       <c r="B43" s="4">
         <f>SUBTOTAL(3,$C$2:C43)*1</f>
@@ -7104,8 +7135,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1">
-      <c r="A44" s="51"/>
+    <row r="44" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="53"/>
       <c r="B44" s="4">
         <f>SUBTOTAL(3,$C$2:C44)*1</f>
         <v>43</v>
@@ -7148,7 +7179,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1">
+    <row r="45" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="51"/>
       <c r="B45" s="4">
         <f>SUBTOTAL(3,$C$2:C45)*1</f>
@@ -7192,7 +7223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1">
+    <row r="46" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="51"/>
       <c r="B46" s="4">
         <f>SUBTOTAL(3,$C$2:C46)*1</f>
@@ -7236,7 +7267,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1">
+    <row r="47" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="51"/>
       <c r="B47" s="4">
         <f>SUBTOTAL(3,$C$2:C47)*1</f>
@@ -7280,7 +7311,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1">
+    <row r="48" spans="1:14" s="30" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="51"/>
       <c r="B48" s="4">
         <f>SUBTOTAL(3,$C$2:C48)*1</f>
@@ -7324,7 +7355,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
+    <row r="49" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="45"/>
       <c r="B49" s="12">
         <f>SUBTOTAL(3,$C$2:C49)*1</f>
@@ -7368,7 +7399,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
+    <row r="50" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="45"/>
       <c r="B50" s="12">
         <f>SUBTOTAL(3,$C$2:C50)*1</f>
@@ -7412,7 +7443,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
+    <row r="51" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="45"/>
       <c r="B51" s="12">
         <f>SUBTOTAL(3,$C$2:C51)*1</f>
@@ -7456,7 +7487,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
+    <row r="52" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="45"/>
       <c r="B52" s="12">
         <f>SUBTOTAL(3,$C$2:C52)*1</f>
@@ -7500,7 +7531,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="53" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="46"/>
       <c r="B53" s="12">
         <f>SUBTOTAL(3,$C$2:C53)*1</f>
@@ -7534,7 +7565,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="35" customFormat="1" ht="33" customHeight="1">
+    <row r="54" spans="1:14" s="35" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="15"/>
       <c r="B54" s="12">
         <f>SUBTOTAL(3,$C$2:C54)*1</f>
@@ -7578,7 +7609,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
+    <row r="55" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="45"/>
       <c r="B55" s="12">
         <f>SUBTOTAL(3,$C$2:C55)*1</f>
@@ -7620,7 +7651,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
+    <row r="56" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="45"/>
       <c r="B56" s="12">
         <f>SUBTOTAL(3,$C$2:C56)*1</f>
@@ -7662,7 +7693,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
+    <row r="57" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="45" t="s">
         <v>1283</v>
       </c>
@@ -7708,7 +7739,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="58" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
+    <row r="58" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="45"/>
       <c r="B58" s="12">
         <f>SUBTOTAL(3,$C$2:C58)*1</f>
@@ -7752,7 +7783,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
+    <row r="59" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="45"/>
       <c r="B59" s="12">
         <f>SUBTOTAL(3,$C$2:C59)*1</f>
@@ -7796,7 +7827,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
+    <row r="60" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="45"/>
       <c r="B60" s="12">
         <f>SUBTOTAL(3,$C$2:C60)*1</f>
@@ -7840,7 +7871,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="61" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="46"/>
       <c r="B61" s="12">
         <f>SUBTOTAL(3,$C$2:C61)*1</f>
@@ -7874,7 +7905,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="62" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="46"/>
       <c r="B62" s="12">
         <f>SUBTOTAL(3,$C$2:C62)*1</f>
@@ -7910,7 +7941,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="63" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="46"/>
       <c r="B63" s="12">
         <f>SUBTOTAL(3,$C$2:C63)*1</f>
@@ -7946,7 +7977,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="64" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="46"/>
       <c r="B64" s="12">
         <f>SUBTOTAL(3,$C$2:C64)*1</f>
@@ -7980,7 +8011,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="65" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="46"/>
       <c r="B65" s="12">
         <f>SUBTOTAL(3,$C$2:C65)*1</f>
@@ -8016,7 +8047,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="66" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="46"/>
       <c r="B66" s="12">
         <f>SUBTOTAL(3,$C$2:C66)*1</f>
@@ -8052,7 +8083,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="67" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="46"/>
       <c r="B67" s="12">
         <f>SUBTOTAL(3,$C$2:C67)*1</f>
@@ -8086,7 +8117,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="68" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="46"/>
       <c r="B68" s="12">
         <f>SUBTOTAL(3,$C$2:C68)*1</f>
@@ -8122,7 +8153,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="69" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="69" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="46"/>
       <c r="B69" s="12">
         <f>SUBTOTAL(3,$C$2:C69)*1</f>
@@ -8158,7 +8189,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="70" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="46"/>
       <c r="B70" s="12">
         <f>SUBTOTAL(3,$C$2:C70)*1</f>
@@ -8194,7 +8225,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="71" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="46"/>
       <c r="B71" s="12">
         <f>SUBTOTAL(3,$C$2:C71)*1</f>
@@ -8230,8 +8261,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
-      <c r="A72" s="46"/>
+    <row r="72" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="46" t="s">
+        <v>1284</v>
+      </c>
       <c r="B72" s="12">
         <f>SUBTOTAL(3,$C$2:C72)*1</f>
         <v>71</v>
@@ -8264,7 +8297,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="73" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="46"/>
       <c r="B73" s="12">
         <f>SUBTOTAL(3,$C$2:C73)*1</f>
@@ -8300,7 +8333,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="74" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="46"/>
       <c r="B74" s="12">
         <f>SUBTOTAL(3,$C$2:C74)*1</f>
@@ -8336,8 +8369,10 @@
         <v>199</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
-      <c r="A75" s="46"/>
+    <row r="75" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="46" t="s">
+        <v>1284</v>
+      </c>
       <c r="B75" s="12">
         <f>SUBTOTAL(3,$C$2:C75)*1</f>
         <v>74</v>
@@ -8370,7 +8405,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="76" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="46"/>
       <c r="B76" s="12">
         <f>SUBTOTAL(3,$C$2:C76)*1</f>
@@ -8404,7 +8439,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="77" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="46"/>
       <c r="B77" s="12">
         <f>SUBTOTAL(3,$C$2:C77)*1</f>
@@ -8440,7 +8475,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="78" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="78" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="46"/>
       <c r="B78" s="12">
         <f>SUBTOTAL(3,$C$2:C78)*1</f>
@@ -8476,7 +8511,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="79" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="79" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="46"/>
       <c r="B79" s="12">
         <f>SUBTOTAL(3,$C$2:C79)*1</f>
@@ -8512,7 +8547,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="80" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="80" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="46"/>
       <c r="B80" s="12">
         <f>SUBTOTAL(3,$C$2:C80)*1</f>
@@ -8548,7 +8583,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="81" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="81" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="46"/>
       <c r="B81" s="12">
         <f>SUBTOTAL(3,$C$2:C81)*1</f>
@@ -8584,7 +8619,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="82" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="82" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="46"/>
       <c r="B82" s="12">
         <f>SUBTOTAL(3,$C$2:C82)*1</f>
@@ -8620,7 +8655,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
+    <row r="83" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="45"/>
       <c r="B83" s="12">
         <f>SUBTOTAL(3,$C$2:C83)*1</f>
@@ -8662,7 +8697,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="84" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
+    <row r="84" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="45"/>
       <c r="B84" s="12">
         <f>SUBTOTAL(3,$C$2:C84)*1</f>
@@ -8706,7 +8741,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="85" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
+    <row r="85" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="45" t="s">
         <v>1283</v>
       </c>
@@ -8750,7 +8785,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
+    <row r="86" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="45"/>
       <c r="B86" s="12">
         <f>SUBTOTAL(3,$C$2:C86)*1</f>
@@ -8794,7 +8829,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="87" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
+    <row r="87" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="45"/>
       <c r="B87" s="12">
         <f>SUBTOTAL(3,$C$2:C87)*1</f>
@@ -8838,7 +8873,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="88" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
+    <row r="88" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="45" t="s">
         <v>1283</v>
       </c>
@@ -8882,7 +8917,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="89" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
+    <row r="89" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="45" t="s">
         <v>1283</v>
       </c>
@@ -8926,7 +8961,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="90" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
+    <row r="90" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="45"/>
       <c r="B90" s="12">
         <f>SUBTOTAL(3,$C$2:C90)*1</f>
@@ -8968,7 +9003,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="91" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
+    <row r="91" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="45"/>
       <c r="B91" s="12">
         <f>SUBTOTAL(3,$C$2:C91)*1</f>
@@ -9012,7 +9047,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="92" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
+    <row r="92" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="45"/>
       <c r="B92" s="12">
         <f>SUBTOTAL(3,$C$2:C92)*1</f>
@@ -9056,7 +9091,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
+    <row r="93" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="45"/>
       <c r="B93" s="12">
         <f>SUBTOTAL(3,$C$2:C93)*1</f>
@@ -9100,7 +9135,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="94" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
+    <row r="94" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="45"/>
       <c r="B94" s="12">
         <f>SUBTOTAL(3,$C$2:C94)*1</f>
@@ -9144,7 +9179,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="95" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1">
+    <row r="95" spans="1:14" s="32" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="45" t="s">
         <v>1283</v>
       </c>
@@ -9190,7 +9225,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="96" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="96" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="46"/>
       <c r="B96" s="12">
         <f>SUBTOTAL(3,$C$2:C96)*1</f>
@@ -9234,7 +9269,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="97" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="97" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="46"/>
       <c r="B97" s="12">
         <f>SUBTOTAL(3,$C$2:C97)*1</f>
@@ -9268,7 +9303,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="98" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="98" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="46"/>
       <c r="B98" s="12">
         <f>SUBTOTAL(3,$C$2:C98)*1</f>
@@ -9302,7 +9337,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="99" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="99" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="46"/>
       <c r="B99" s="12">
         <f>SUBTOTAL(3,$C$2:C99)*1</f>
@@ -9336,7 +9371,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="100" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="100" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="46"/>
       <c r="B100" s="12">
         <f>SUBTOTAL(3,$C$2:C100)*1</f>
@@ -9370,7 +9405,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="101" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="101" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="46"/>
       <c r="B101" s="12">
         <f>SUBTOTAL(3,$C$2:C101)*1</f>
@@ -9404,7 +9439,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="102" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="102" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="46"/>
       <c r="B102" s="12">
         <f>SUBTOTAL(3,$C$2:C102)*1</f>
@@ -9438,7 +9473,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="103" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="103" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="46"/>
       <c r="B103" s="12">
         <f>SUBTOTAL(3,$C$2:C103)*1</f>
@@ -9482,7 +9517,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="104" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="104" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="46"/>
       <c r="B104" s="12">
         <f>SUBTOTAL(3,$C$2:C104)*1</f>
@@ -9526,7 +9561,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="105" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="105" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="46"/>
       <c r="B105" s="12">
         <f>SUBTOTAL(3,$C$2:C105)*1</f>
@@ -9570,7 +9605,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="106" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="106" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="46"/>
       <c r="B106" s="12">
         <f>SUBTOTAL(3,$C$2:C106)*1</f>
@@ -9614,7 +9649,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="107" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="107" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="46"/>
       <c r="B107" s="12">
         <f>SUBTOTAL(3,$C$2:C107)*1</f>
@@ -9648,7 +9683,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="108" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="108" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="46"/>
       <c r="B108" s="12">
         <f>SUBTOTAL(3,$C$2:C108)*1</f>
@@ -9682,7 +9717,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="109" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="109" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="46"/>
       <c r="B109" s="12">
         <f>SUBTOTAL(3,$C$2:C109)*1</f>
@@ -9716,7 +9751,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="110" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="110" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="46"/>
       <c r="B110" s="12">
         <f>SUBTOTAL(3,$C$2:C110)*1</f>
@@ -9750,7 +9785,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="111" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="111" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="46"/>
       <c r="B111" s="12">
         <f>SUBTOTAL(3,$C$2:C111)*1</f>
@@ -9794,7 +9829,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="112" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="112" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="46"/>
       <c r="B112" s="12">
         <f>SUBTOTAL(3,$C$2:C112)*1</f>
@@ -9828,7 +9863,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="113" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="113" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="46"/>
       <c r="B113" s="12">
         <f>SUBTOTAL(3,$C$2:C113)*1</f>
@@ -9862,7 +9897,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="114" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="114" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="46"/>
       <c r="B114" s="12">
         <f>SUBTOTAL(3,$C$2:C114)*1</f>
@@ -9896,7 +9931,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="115" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="115" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="45" t="s">
         <v>1283</v>
       </c>
@@ -9942,8 +9977,10 @@
         <v>311</v>
       </c>
     </row>
-    <row r="116" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
-      <c r="A116" s="46"/>
+    <row r="116" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="45" t="s">
+        <v>1283</v>
+      </c>
       <c r="B116" s="12">
         <f>SUBTOTAL(3,$C$2:C116)*1</f>
         <v>115</v>
@@ -9978,7 +10015,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="117" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="117" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="46"/>
       <c r="B117" s="12">
         <f>SUBTOTAL(3,$C$2:C117)*1</f>
@@ -10014,7 +10051,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="118" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="118" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="46"/>
       <c r="B118" s="12">
         <f>SUBTOTAL(3,$C$2:C118)*1</f>
@@ -10050,7 +10087,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="119" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="119" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="46"/>
       <c r="B119" s="12">
         <f>SUBTOTAL(3,$C$2:C119)*1</f>
@@ -10094,7 +10131,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="120" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="120" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="46"/>
       <c r="B120" s="12">
         <f>SUBTOTAL(3,$C$2:C120)*1</f>
@@ -10128,7 +10165,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="121" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="121" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="46"/>
       <c r="B121" s="12">
         <f>SUBTOTAL(3,$C$2:C121)*1</f>
@@ -10162,7 +10199,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="122" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="122" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="46"/>
       <c r="B122" s="12">
         <f>SUBTOTAL(3,$C$2:C122)*1</f>
@@ -10196,7 +10233,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="123" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="123" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="46"/>
       <c r="B123" s="12">
         <f>SUBTOTAL(3,$C$2:C123)*1</f>
@@ -10240,7 +10277,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="124" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="124" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="46"/>
       <c r="B124" s="12">
         <f>SUBTOTAL(3,$C$2:C124)*1</f>
@@ -10274,7 +10311,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="125" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="125" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="46"/>
       <c r="B125" s="12">
         <f>SUBTOTAL(3,$C$2:C125)*1</f>
@@ -10308,7 +10345,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="126" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="126" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="46"/>
       <c r="B126" s="12">
         <f>SUBTOTAL(3,$C$2:C126)*1</f>
@@ -10352,7 +10389,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="127" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="127" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="46"/>
       <c r="B127" s="12">
         <f>SUBTOTAL(3,$C$2:C127)*1</f>
@@ -10386,7 +10423,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="128" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="128" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="46"/>
       <c r="B128" s="12">
         <f>SUBTOTAL(3,$C$2:C128)*1</f>
@@ -10420,7 +10457,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="129" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="129" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="46"/>
       <c r="B129" s="12">
         <f>SUBTOTAL(3,$C$2:C129)*1</f>
@@ -10454,7 +10491,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="130" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="130" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="46"/>
       <c r="B130" s="12">
         <f>SUBTOTAL(3,$C$2:C130)*1</f>
@@ -10488,7 +10525,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="131" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="131" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="46"/>
       <c r="B131" s="12">
         <f>SUBTOTAL(3,$C$2:C131)*1</f>
@@ -10522,7 +10559,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="132" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="132" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="46"/>
       <c r="B132" s="12">
         <f>SUBTOTAL(3,$C$2:C132)*1</f>
@@ -10556,7 +10593,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="133" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="133" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="46"/>
       <c r="B133" s="12">
         <f>SUBTOTAL(3,$C$2:C133)*1</f>
@@ -10590,7 +10627,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="134" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="134" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="46"/>
       <c r="B134" s="12">
         <f>SUBTOTAL(3,$C$2:C134)*1</f>
@@ -10624,7 +10661,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="135" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="135" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="46"/>
       <c r="B135" s="12">
         <f>SUBTOTAL(3,$C$2:C135)*1</f>
@@ -10658,7 +10695,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="136" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="136" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="46"/>
       <c r="B136" s="12">
         <f>SUBTOTAL(3,$C$2:C136)*1</f>
@@ -10692,7 +10729,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="137" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="137" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="46"/>
       <c r="B137" s="12">
         <f>SUBTOTAL(3,$C$2:C137)*1</f>
@@ -10726,7 +10763,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="138" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="138" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="46"/>
       <c r="B138" s="12">
         <f>SUBTOTAL(3,$C$2:C138)*1</f>
@@ -10760,7 +10797,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="139" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="139" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="46"/>
       <c r="B139" s="12">
         <f>SUBTOTAL(3,$C$2:C139)*1</f>
@@ -10794,7 +10831,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="140" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="140" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="46"/>
       <c r="B140" s="12">
         <f>SUBTOTAL(3,$C$2:C140)*1</f>
@@ -10828,7 +10865,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="141" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="141" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="46"/>
       <c r="B141" s="12">
         <f>SUBTOTAL(3,$C$2:C141)*1</f>
@@ -10862,7 +10899,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="142" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="142" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="46"/>
       <c r="B142" s="12">
         <f>SUBTOTAL(3,$C$2:C142)*1</f>
@@ -10896,7 +10933,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="143" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="143" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="46"/>
       <c r="B143" s="12">
         <f>SUBTOTAL(3,$C$2:C143)*1</f>
@@ -10930,7 +10967,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="144" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="144" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="46"/>
       <c r="B144" s="12">
         <f>SUBTOTAL(3,$C$2:C144)*1</f>
@@ -10974,7 +11011,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="145" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="145" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="46"/>
       <c r="B145" s="12">
         <f>SUBTOTAL(3,$C$2:C145)*1</f>
@@ -11008,7 +11045,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="146" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="146" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="46"/>
       <c r="B146" s="12">
         <f>SUBTOTAL(3,$C$2:C146)*1</f>
@@ -11042,7 +11079,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="147" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="147" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="46"/>
       <c r="B147" s="12">
         <f>SUBTOTAL(3,$C$2:C147)*1</f>
@@ -11076,7 +11113,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="148" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="148" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="46"/>
       <c r="B148" s="12">
         <f>SUBTOTAL(3,$C$2:C148)*1</f>
@@ -11110,7 +11147,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="149" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="149" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="46"/>
       <c r="B149" s="12">
         <f>SUBTOTAL(3,$C$2:C149)*1</f>
@@ -11144,7 +11181,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="150" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="150" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="46"/>
       <c r="B150" s="12">
         <f>SUBTOTAL(3,$C$2:C150)*1</f>
@@ -11178,7 +11215,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="151" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="151" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="46"/>
       <c r="B151" s="12">
         <f>SUBTOTAL(3,$C$2:C151)*1</f>
@@ -11212,7 +11249,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="152" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="152" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="46"/>
       <c r="B152" s="12">
         <f>SUBTOTAL(3,$C$2:C152)*1</f>
@@ -11246,7 +11283,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="153" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="153" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="46"/>
       <c r="B153" s="12">
         <f>SUBTOTAL(3,$C$2:C153)*1</f>
@@ -11280,7 +11317,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="154" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="154" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="46"/>
       <c r="B154" s="12">
         <f>SUBTOTAL(3,$C$2:C154)*1</f>
@@ -11314,7 +11351,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="155" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="155" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="46"/>
       <c r="B155" s="12">
         <f>SUBTOTAL(3,$C$2:C155)*1</f>
@@ -11348,7 +11385,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="156" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="156" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="46"/>
       <c r="B156" s="12">
         <f>SUBTOTAL(3,$C$2:C156)*1</f>
@@ -11382,7 +11419,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="157" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="157" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="46"/>
       <c r="B157" s="12">
         <f>SUBTOTAL(3,$C$2:C157)*1</f>
@@ -11416,7 +11453,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="158" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="158" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="46"/>
       <c r="B158" s="12">
         <f>SUBTOTAL(3,$C$2:C158)*1</f>
@@ -11450,7 +11487,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="159" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="159" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="46"/>
       <c r="B159" s="12">
         <f>SUBTOTAL(3,$C$2:C159)*1</f>
@@ -11484,7 +11521,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="160" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="160" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="46"/>
       <c r="B160" s="12">
         <f>SUBTOTAL(3,$C$2:C160)*1</f>
@@ -11518,7 +11555,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="161" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="161" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="46"/>
       <c r="B161" s="12">
         <f>SUBTOTAL(3,$C$2:C161)*1</f>
@@ -11552,7 +11589,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="162" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="162" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="46"/>
       <c r="B162" s="12">
         <f>SUBTOTAL(3,$C$2:C162)*1</f>
@@ -11586,7 +11623,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="163" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="163" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="46"/>
       <c r="B163" s="12">
         <f>SUBTOTAL(3,$C$2:C163)*1</f>
@@ -11620,7 +11657,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="164" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="164" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="46"/>
       <c r="B164" s="12">
         <f>SUBTOTAL(3,$C$2:C164)*1</f>
@@ -11654,7 +11691,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="165" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="165" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="46"/>
       <c r="B165" s="12">
         <f>SUBTOTAL(3,$C$2:C165)*1</f>
@@ -11688,7 +11725,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="166" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="166" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="46"/>
       <c r="B166" s="12">
         <f>SUBTOTAL(3,$C$2:C166)*1</f>
@@ -11722,7 +11759,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="167" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="167" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="46"/>
       <c r="B167" s="12">
         <f>SUBTOTAL(3,$C$2:C167)*1</f>
@@ -11764,7 +11801,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="168" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="168" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="46"/>
       <c r="B168" s="12">
         <f>SUBTOTAL(3,$C$2:C168)*1</f>
@@ -11798,7 +11835,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="169" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="169" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="46"/>
       <c r="B169" s="12">
         <f>SUBTOTAL(3,$C$2:C169)*1</f>
@@ -11832,7 +11869,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="170" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="170" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="46"/>
       <c r="B170" s="12">
         <f>SUBTOTAL(3,$C$2:C170)*1</f>
@@ -11866,7 +11903,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="171" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="171" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="46"/>
       <c r="B171" s="12">
         <f>SUBTOTAL(3,$C$2:C171)*1</f>
@@ -11900,7 +11937,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="172" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="172" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="46"/>
       <c r="B172" s="12">
         <f>SUBTOTAL(3,$C$2:C172)*1</f>
@@ -11944,8 +11981,10 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="173" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
-      <c r="A173" s="46"/>
+    <row r="173" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A173" s="46" t="s">
+        <v>1284</v>
+      </c>
       <c r="B173" s="12">
         <f>SUBTOTAL(3,$C$2:C173)*1</f>
         <v>172</v>
@@ -11978,8 +12017,10 @@
         <v>459</v>
       </c>
     </row>
-    <row r="174" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
-      <c r="A174" s="46"/>
+    <row r="174" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A174" s="46" t="s">
+        <v>1284</v>
+      </c>
       <c r="B174" s="12">
         <f>SUBTOTAL(3,$C$2:C174)*1</f>
         <v>173</v>
@@ -12012,8 +12053,10 @@
         <v>461</v>
       </c>
     </row>
-    <row r="175" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
-      <c r="A175" s="46"/>
+    <row r="175" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A175" s="46" t="s">
+        <v>1284</v>
+      </c>
       <c r="B175" s="12">
         <f>SUBTOTAL(3,$C$2:C175)*1</f>
         <v>174</v>
@@ -12050,7 +12093,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="176" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="176" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="46"/>
       <c r="B176" s="12">
         <f>SUBTOTAL(3,$C$2:C176)*1</f>
@@ -12084,7 +12127,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="177" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="177" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="46"/>
       <c r="B177" s="12">
         <f>SUBTOTAL(3,$C$2:C177)*1</f>
@@ -12118,7 +12161,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="178" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="178" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="46"/>
       <c r="B178" s="12">
         <f>SUBTOTAL(3,$C$2:C178)*1</f>
@@ -12152,7 +12195,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="179" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="179" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="46"/>
       <c r="B179" s="12">
         <f>SUBTOTAL(3,$C$2:C179)*1</f>
@@ -12186,7 +12229,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="180" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="180" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="46"/>
       <c r="B180" s="12">
         <f>SUBTOTAL(3,$C$2:C180)*1</f>
@@ -12220,7 +12263,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="181" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="181" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="46"/>
       <c r="B181" s="12">
         <f>SUBTOTAL(3,$C$2:C181)*1</f>
@@ -12254,7 +12297,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="182" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="182" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="46"/>
       <c r="B182" s="12">
         <f>SUBTOTAL(3,$C$2:C182)*1</f>
@@ -12288,7 +12331,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="183" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="183" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="45" t="s">
         <v>1283</v>
       </c>
@@ -12330,7 +12373,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="184" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="184" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="46"/>
       <c r="B184" s="12">
         <f>SUBTOTAL(3,$C$2:C184)*1</f>
@@ -12374,7 +12417,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="185" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="185" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="46"/>
       <c r="B185" s="12">
         <f>SUBTOTAL(3,$C$2:C185)*1</f>
@@ -12408,7 +12451,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="186" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="186" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="46"/>
       <c r="B186" s="12">
         <f>SUBTOTAL(3,$C$2:C186)*1</f>
@@ -12442,7 +12485,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="187" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="187" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="46"/>
       <c r="B187" s="12">
         <f>SUBTOTAL(3,$C$2:C187)*1</f>
@@ -12484,7 +12527,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="188" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="188" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="46"/>
       <c r="B188" s="12">
         <f>SUBTOTAL(3,$C$2:C188)*1</f>
@@ -12518,7 +12561,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="189" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="189" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="46"/>
       <c r="B189" s="12">
         <f>SUBTOTAL(3,$C$2:C189)*1</f>
@@ -12562,7 +12605,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="190" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="190" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="46"/>
       <c r="B190" s="12">
         <f>SUBTOTAL(3,$C$2:C190)*1</f>
@@ -12606,8 +12649,10 @@
         <v>498</v>
       </c>
     </row>
-    <row r="191" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
-      <c r="A191" s="46"/>
+    <row r="191" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A191" s="46" t="s">
+        <v>1284</v>
+      </c>
       <c r="B191" s="12">
         <f>SUBTOTAL(3,$C$2:C191)*1</f>
         <v>190</v>
@@ -12644,7 +12689,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="192" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="192" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="46"/>
       <c r="B192" s="12">
         <f>SUBTOTAL(3,$C$2:C192)*1</f>
@@ -12688,7 +12733,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="193" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="193" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="46"/>
       <c r="B193" s="12">
         <f>SUBTOTAL(3,$C$2:C193)*1</f>
@@ -12722,7 +12767,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="194" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="194" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="46"/>
       <c r="B194" s="12">
         <f>SUBTOTAL(3,$C$2:C194)*1</f>
@@ -12756,7 +12801,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="195" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="195" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="46"/>
       <c r="B195" s="12">
         <f>SUBTOTAL(3,$C$2:C195)*1</f>
@@ -12790,7 +12835,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="196" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="196" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="46"/>
       <c r="B196" s="12">
         <f>SUBTOTAL(3,$C$2:C196)*1</f>
@@ -12824,7 +12869,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="197" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="197" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="46"/>
       <c r="B197" s="12">
         <f>SUBTOTAL(3,$C$2:C197)*1</f>
@@ -12858,7 +12903,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="198" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="198" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="46"/>
       <c r="B198" s="12">
         <f>SUBTOTAL(3,$C$2:C198)*1</f>
@@ -12892,7 +12937,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="199" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="199" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="46"/>
       <c r="B199" s="12">
         <f>SUBTOTAL(3,$C$2:C199)*1</f>
@@ -12926,7 +12971,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="200" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="200" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="46"/>
       <c r="B200" s="12">
         <f>SUBTOTAL(3,$C$2:C200)*1</f>
@@ -12968,7 +13013,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="201" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="201" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="46"/>
       <c r="B201" s="12">
         <f>SUBTOTAL(3,$C$2:C201)*1</f>
@@ -13012,7 +13057,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="202" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="202" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="46"/>
       <c r="B202" s="12">
         <f>SUBTOTAL(3,$C$2:C202)*1</f>
@@ -13046,7 +13091,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="203" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="203" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="46"/>
       <c r="B203" s="12">
         <f>SUBTOTAL(3,$C$2:C203)*1</f>
@@ -13080,7 +13125,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="204" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="204" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="46"/>
       <c r="B204" s="12">
         <f>SUBTOTAL(3,$C$2:C204)*1</f>
@@ -13114,7 +13159,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="205" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="205" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="46"/>
       <c r="B205" s="12">
         <f>SUBTOTAL(3,$C$2:C205)*1</f>
@@ -13158,7 +13203,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="206" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="206" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="46"/>
       <c r="B206" s="12">
         <f>SUBTOTAL(3,$C$2:C206)*1</f>
@@ -13202,7 +13247,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="207" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="207" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="46"/>
       <c r="B207" s="12">
         <f>SUBTOTAL(3,$C$2:C207)*1</f>
@@ -13246,7 +13291,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="208" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="208" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="46"/>
       <c r="B208" s="12">
         <f>SUBTOTAL(3,$C$2:C208)*1</f>
@@ -13280,7 +13325,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="209" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="209" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="45" t="s">
         <v>1283</v>
       </c>
@@ -13322,7 +13367,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="210" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="210" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="46"/>
       <c r="B210" s="12">
         <f>SUBTOTAL(3,$C$2:C210)*1</f>
@@ -13356,7 +13401,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="211" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="211" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="46"/>
       <c r="B211" s="12">
         <f>SUBTOTAL(3,$C$2:C211)*1</f>
@@ -13390,7 +13435,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="212" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="212" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="46"/>
       <c r="B212" s="12">
         <f>SUBTOTAL(3,$C$2:C212)*1</f>
@@ -13434,7 +13479,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="213" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="213" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="46"/>
       <c r="B213" s="12">
         <f>SUBTOTAL(3,$C$2:C213)*1</f>
@@ -13476,7 +13521,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="214" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="214" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="46"/>
       <c r="B214" s="12">
         <f>SUBTOTAL(3,$C$2:C214)*1</f>
@@ -13510,7 +13555,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="215" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="215" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="46"/>
       <c r="B215" s="12">
         <f>SUBTOTAL(3,$C$2:C215)*1</f>
@@ -13552,7 +13597,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="216" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="216" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="46"/>
       <c r="B216" s="12">
         <f>SUBTOTAL(3,$C$2:C216)*1</f>
@@ -13596,7 +13641,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="217" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="217" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="46"/>
       <c r="B217" s="12">
         <f>SUBTOTAL(3,$C$2:C217)*1</f>
@@ -13630,7 +13675,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="218" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="218" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="46"/>
       <c r="B218" s="12">
         <f>SUBTOTAL(3,$C$2:C218)*1</f>
@@ -13664,7 +13709,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="219" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="219" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="46"/>
       <c r="B219" s="12">
         <f>SUBTOTAL(3,$C$2:C219)*1</f>
@@ -13708,7 +13753,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="220" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="220" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="46"/>
       <c r="B220" s="12">
         <f>SUBTOTAL(3,$C$2:C220)*1</f>
@@ -13742,7 +13787,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="221" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="221" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="46"/>
       <c r="B221" s="12">
         <f>SUBTOTAL(3,$C$2:C221)*1</f>
@@ -13786,7 +13831,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="222" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="222" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="46" t="s">
         <v>1283</v>
       </c>
@@ -13832,7 +13877,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="223" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="223" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="46"/>
       <c r="B223" s="12">
         <f>SUBTOTAL(3,$C$2:C223)*1</f>
@@ -13876,7 +13921,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="224" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="224" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="46"/>
       <c r="B224" s="12">
         <f>SUBTOTAL(3,$C$2:C224)*1</f>
@@ -13910,7 +13955,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="225" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="225" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="46"/>
       <c r="B225" s="12">
         <f>SUBTOTAL(3,$C$2:C225)*1</f>
@@ -13944,7 +13989,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="226" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="226" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="46"/>
       <c r="B226" s="12">
         <f>SUBTOTAL(3,$C$2:C226)*1</f>
@@ -13978,7 +14023,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="227" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="227" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="46"/>
       <c r="B227" s="12">
         <f>SUBTOTAL(3,$C$2:C227)*1</f>
@@ -14012,7 +14057,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="228" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="228" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="46"/>
       <c r="B228" s="12">
         <f>SUBTOTAL(3,$C$2:C228)*1</f>
@@ -14046,7 +14091,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="229" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="229" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="46"/>
       <c r="B229" s="12">
         <f>SUBTOTAL(3,$C$2:C229)*1</f>
@@ -14080,7 +14125,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="230" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="230" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="46"/>
       <c r="B230" s="12">
         <f>SUBTOTAL(3,$C$2:C230)*1</f>
@@ -14114,7 +14159,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="231" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="231" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="46"/>
       <c r="B231" s="12">
         <f>SUBTOTAL(3,$C$2:C231)*1</f>
@@ -14148,7 +14193,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="232" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="232" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="46"/>
       <c r="B232" s="12">
         <f>SUBTOTAL(3,$C$2:C232)*1</f>
@@ -14192,7 +14237,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="233" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="233" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="46"/>
       <c r="B233" s="12">
         <f>SUBTOTAL(3,$C$2:C233)*1</f>
@@ -14226,7 +14271,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="234" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="234" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="46"/>
       <c r="B234" s="12">
         <f>SUBTOTAL(3,$C$2:C234)*1</f>
@@ -14270,7 +14315,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="235" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="235" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="46"/>
       <c r="B235" s="12">
         <f>SUBTOTAL(3,$C$2:C235)*1</f>
@@ -14304,7 +14349,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="236" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="236" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="46"/>
       <c r="B236" s="12">
         <f>SUBTOTAL(3,$C$2:C236)*1</f>
@@ -14348,7 +14393,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="237" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="237" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="46"/>
       <c r="B237" s="12">
         <f>SUBTOTAL(3,$C$2:C237)*1</f>
@@ -14392,7 +14437,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="238" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="238" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="46"/>
       <c r="B238" s="12">
         <f>SUBTOTAL(3,$C$2:C238)*1</f>
@@ -14436,7 +14481,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="239" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="239" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="46"/>
       <c r="B239" s="12">
         <f>SUBTOTAL(3,$C$2:C239)*1</f>
@@ -14480,7 +14525,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="240" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="240" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="46" t="s">
         <v>1283</v>
       </c>
@@ -14524,7 +14569,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="241" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="241" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="46"/>
       <c r="B241" s="12">
         <f>SUBTOTAL(3,$C$2:C241)*1</f>
@@ -14558,7 +14603,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="242" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="242" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="46" t="s">
         <v>1283</v>
       </c>
@@ -14602,7 +14647,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="243" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="243" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="46"/>
       <c r="B243" s="12">
         <f>SUBTOTAL(3,$C$2:C243)*1</f>
@@ -14646,7 +14691,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="244" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="244" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="46"/>
       <c r="B244" s="12">
         <f>SUBTOTAL(3,$C$2:C244)*1</f>
@@ -14690,7 +14735,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="245" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="245" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="46"/>
       <c r="B245" s="12">
         <f>SUBTOTAL(3,$C$2:C245)*1</f>
@@ -14734,7 +14779,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="246" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="246" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="46"/>
       <c r="B246" s="12">
         <f>SUBTOTAL(3,$C$2:C246)*1</f>
@@ -14768,7 +14813,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="247" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="247" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="46" t="s">
         <v>1283</v>
       </c>
@@ -14812,7 +14857,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="248" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="248" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="46"/>
       <c r="B248" s="12">
         <f>SUBTOTAL(3,$C$2:C248)*1</f>
@@ -14846,7 +14891,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="249" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="249" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A249" s="46"/>
       <c r="B249" s="12">
         <f>SUBTOTAL(3,$C$2:C249)*1</f>
@@ -14880,7 +14925,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="250" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="250" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A250" s="46"/>
       <c r="B250" s="12">
         <f>SUBTOTAL(3,$C$2:C250)*1</f>
@@ -14924,7 +14969,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="251" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="251" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A251" s="46"/>
       <c r="B251" s="12">
         <f>SUBTOTAL(3,$C$2:C251)*1</f>
@@ -14958,7 +15003,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="252" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="252" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A252" s="46"/>
       <c r="B252" s="12">
         <f>SUBTOTAL(3,$C$2:C252)*1</f>
@@ -14992,7 +15037,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="253" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="253" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A253" s="46"/>
       <c r="B253" s="12">
         <f>SUBTOTAL(3,$C$2:C253)*1</f>
@@ -15036,7 +15081,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="254" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="254" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A254" s="46"/>
       <c r="B254" s="12">
         <f>SUBTOTAL(3,$C$2:C254)*1</f>
@@ -15070,7 +15115,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="255" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="255" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A255" s="46"/>
       <c r="B255" s="12">
         <f>SUBTOTAL(3,$C$2:C255)*1</f>
@@ -15114,7 +15159,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="256" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="256" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A256" s="46"/>
       <c r="B256" s="12">
         <f>SUBTOTAL(3,$C$2:C256)*1</f>
@@ -15156,7 +15201,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="257" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="257" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A257" s="46"/>
       <c r="B257" s="12">
         <f>SUBTOTAL(3,$C$2:C257)*1</f>
@@ -15190,7 +15235,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="258" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="258" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A258" s="46"/>
       <c r="B258" s="12">
         <f>SUBTOTAL(3,$C$2:C258)*1</f>
@@ -15234,7 +15279,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="259" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="259" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A259" s="46" t="s">
         <v>1283</v>
       </c>
@@ -15280,7 +15325,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="260" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="260" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A260" s="46"/>
       <c r="B260" s="12">
         <f>SUBTOTAL(3,$C$2:C260)*1</f>
@@ -15322,7 +15367,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="261" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="261" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A261" s="46"/>
       <c r="B261" s="12">
         <f>SUBTOTAL(3,$C$2:C261)*1</f>
@@ -15366,7 +15411,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="262" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="262" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A262" s="46"/>
       <c r="B262" s="12">
         <f>SUBTOTAL(3,$C$2:C262)*1</f>
@@ -15400,7 +15445,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="263" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="263" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A263" s="46"/>
       <c r="B263" s="12">
         <f>SUBTOTAL(3,$C$2:C263)*1</f>
@@ -15434,7 +15479,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="264" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="264" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A264" s="46"/>
       <c r="B264" s="12">
         <f>SUBTOTAL(3,$C$2:C264)*1</f>
@@ -15468,7 +15513,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="265" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="265" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A265" s="46"/>
       <c r="B265" s="12">
         <f>SUBTOTAL(3,$C$2:C265)*1</f>
@@ -15512,7 +15557,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="266" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="266" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A266" s="46"/>
       <c r="B266" s="12">
         <f>SUBTOTAL(3,$C$2:C266)*1</f>
@@ -15546,7 +15591,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="267" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="267" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A267" s="46"/>
       <c r="B267" s="12">
         <f>SUBTOTAL(3,$C$2:C267)*1</f>
@@ -15580,7 +15625,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="268" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="268" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A268" s="46"/>
       <c r="B268" s="12">
         <f>SUBTOTAL(3,$C$2:C268)*1</f>
@@ -15624,7 +15669,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="269" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="269" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A269" s="46"/>
       <c r="B269" s="12">
         <f>SUBTOTAL(3,$C$2:C269)*1</f>
@@ -15658,7 +15703,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="270" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="270" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A270" s="46"/>
       <c r="B270" s="12">
         <f>SUBTOTAL(3,$C$2:C270)*1</f>
@@ -15692,7 +15737,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="271" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="271" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A271" s="46"/>
       <c r="B271" s="12">
         <f>SUBTOTAL(3,$C$2:C271)*1</f>
@@ -15734,7 +15779,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="272" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="272" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A272" s="46"/>
       <c r="B272" s="12">
         <f>SUBTOTAL(3,$C$2:C272)*1</f>
@@ -15778,7 +15823,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="273" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="273" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A273" s="46"/>
       <c r="B273" s="12">
         <f>SUBTOTAL(3,$C$2:C273)*1</f>
@@ -15822,7 +15867,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="274" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="274" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A274" s="46"/>
       <c r="B274" s="12">
         <f>SUBTOTAL(3,$C$2:C274)*1</f>
@@ -15866,7 +15911,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="275" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="275" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A275" s="46"/>
       <c r="B275" s="12">
         <f>SUBTOTAL(3,$C$2:C275)*1</f>
@@ -15900,7 +15945,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="276" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="276" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A276" s="46" t="s">
         <v>1283</v>
       </c>
@@ -15946,7 +15991,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="277" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="277" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A277" s="46"/>
       <c r="B277" s="12">
         <f>SUBTOTAL(3,$C$2:C277)*1</f>
@@ -15990,7 +16035,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="278" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="278" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A278" s="46"/>
       <c r="B278" s="12">
         <f>SUBTOTAL(3,$C$2:C278)*1</f>
@@ -16024,7 +16069,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="279" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="279" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A279" s="46"/>
       <c r="B279" s="12">
         <f>SUBTOTAL(3,$C$2:C279)*1</f>
@@ -16057,7 +16102,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="280" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="280" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A280" s="46"/>
       <c r="B280" s="12">
         <f>SUBTOTAL(3,$C$2:C280)*1</f>
@@ -16101,7 +16146,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="281" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="281" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A281" s="46"/>
       <c r="B281" s="12">
         <f>SUBTOTAL(3,$C$2:C281)*1</f>
@@ -16135,7 +16180,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="282" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="282" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A282" s="46"/>
       <c r="B282" s="12">
         <f>SUBTOTAL(3,$C$2:C282)*1</f>
@@ -16169,7 +16214,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="283" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="283" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A283" s="46"/>
       <c r="B283" s="12">
         <f>SUBTOTAL(3,$C$2:C283)*1</f>
@@ -16213,7 +16258,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="284" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="284" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A284" s="46" t="s">
         <v>1283</v>
       </c>
@@ -16259,8 +16304,10 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="285" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
-      <c r="A285" s="46"/>
+    <row r="285" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A285" s="46" t="s">
+        <v>1283</v>
+      </c>
       <c r="B285" s="12">
         <f>SUBTOTAL(3,$C$2:C285)*1</f>
         <v>284</v>
@@ -16293,7 +16340,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="286" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="286" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A286" s="46"/>
       <c r="B286" s="12">
         <f>SUBTOTAL(3,$C$2:C286)*1</f>
@@ -16327,7 +16374,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="287" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="287" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A287" s="46"/>
       <c r="B287" s="12">
         <f>SUBTOTAL(3,$C$2:C287)*1</f>
@@ -16361,7 +16408,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="288" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="288" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A288" s="46"/>
       <c r="B288" s="12">
         <f>SUBTOTAL(3,$C$2:C288)*1</f>
@@ -16405,7 +16452,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="289" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="289" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A289" s="46" t="s">
         <v>1283</v>
       </c>
@@ -16451,8 +16498,10 @@
         <v>712</v>
       </c>
     </row>
-    <row r="290" spans="1:16" s="35" customFormat="1" ht="33" customHeight="1">
-      <c r="A290" s="15"/>
+    <row r="290" spans="1:16" s="35" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A290" s="46" t="s">
+        <v>1283</v>
+      </c>
       <c r="B290" s="12">
         <f>SUBTOTAL(3,$C$2:C290)*1</f>
         <v>289</v>
@@ -16487,7 +16536,7 @@
       <c r="O290" s="34"/>
       <c r="P290" s="34"/>
     </row>
-    <row r="291" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="291" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A291" s="46"/>
       <c r="B291" s="12">
         <f>SUBTOTAL(3,$C$2:C291)*1</f>
@@ -16521,8 +16570,10 @@
         <v>718</v>
       </c>
     </row>
-    <row r="292" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
-      <c r="A292" s="46"/>
+    <row r="292" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A292" s="46" t="s">
+        <v>1283</v>
+      </c>
       <c r="B292" s="12">
         <f>SUBTOTAL(3,$C$2:C292)*1</f>
         <v>291</v>
@@ -16555,7 +16606,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="293" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="293" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A293" s="46"/>
       <c r="B293" s="12">
         <f>SUBTOTAL(3,$C$2:C293)*1</f>
@@ -16599,7 +16650,7 @@
       <c r="O293" s="35"/>
       <c r="P293" s="35"/>
     </row>
-    <row r="294" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="294" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A294" s="46"/>
       <c r="B294" s="12">
         <f>SUBTOTAL(3,$C$2:C294)*1</f>
@@ -16641,7 +16692,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="295" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="295" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A295" s="46"/>
       <c r="B295" s="12">
         <f>SUBTOTAL(3,$C$2:C295)*1</f>
@@ -16675,7 +16726,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="296" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="296" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A296" s="46"/>
       <c r="B296" s="12">
         <f>SUBTOTAL(3,$C$2:C296)*1</f>
@@ -16709,7 +16760,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="297" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="297" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A297" s="46"/>
       <c r="B297" s="12">
         <f>SUBTOTAL(3,$C$2:C297)*1</f>
@@ -16743,7 +16794,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="298" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="298" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A298" s="46"/>
       <c r="B298" s="12">
         <f>SUBTOTAL(3,$C$2:C298)*1</f>
@@ -16777,7 +16828,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="299" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="299" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A299" s="46"/>
       <c r="B299" s="12">
         <f>SUBTOTAL(3,$C$2:C299)*1</f>
@@ -16811,7 +16862,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="300" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="300" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A300" s="46"/>
       <c r="B300" s="12">
         <f>SUBTOTAL(3,$C$2:C300)*1</f>
@@ -16855,7 +16906,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="301" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="301" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A301" s="46"/>
       <c r="B301" s="12">
         <f>SUBTOTAL(3,$C$2:C301)*1</f>
@@ -16889,8 +16940,10 @@
         <v>742</v>
       </c>
     </row>
-    <row r="302" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
-      <c r="A302" s="46"/>
+    <row r="302" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A302" s="46" t="s">
+        <v>1284</v>
+      </c>
       <c r="B302" s="12">
         <f>SUBTOTAL(3,$C$2:C302)*1</f>
         <v>301</v>
@@ -16923,7 +16976,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="303" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="303" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A303" s="46"/>
       <c r="B303" s="12">
         <f>SUBTOTAL(3,$C$2:C303)*1</f>
@@ -16957,7 +17010,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="304" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="304" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A304" s="46"/>
       <c r="B304" s="12">
         <f>SUBTOTAL(3,$C$2:C304)*1</f>
@@ -17001,7 +17054,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="305" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="305" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A305" s="46"/>
       <c r="B305" s="12">
         <f>SUBTOTAL(3,$C$2:C305)*1</f>
@@ -17035,7 +17088,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="306" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="306" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A306" s="46"/>
       <c r="B306" s="12">
         <f>SUBTOTAL(3,$C$2:C306)*1</f>
@@ -17069,7 +17122,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="307" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="307" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A307" s="46"/>
       <c r="B307" s="12">
         <f>SUBTOTAL(3,$C$2:C307)*1</f>
@@ -17103,7 +17156,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="308" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="308" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A308" s="46"/>
       <c r="B308" s="12">
         <f>SUBTOTAL(3,$C$2:C308)*1</f>
@@ -17137,7 +17190,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="309" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="309" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A309" s="46"/>
       <c r="B309" s="12">
         <f>SUBTOTAL(3,$C$2:C309)*1</f>
@@ -17181,7 +17234,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="310" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="310" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A310" s="46"/>
       <c r="B310" s="12">
         <f>SUBTOTAL(3,$C$2:C310)*1</f>
@@ -17225,7 +17278,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="311" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="311" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A311" s="46"/>
       <c r="B311" s="12">
         <f>SUBTOTAL(3,$C$2:C311)*1</f>
@@ -17269,7 +17322,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="312" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="312" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A312" s="46"/>
       <c r="B312" s="12">
         <f>SUBTOTAL(3,$C$2:C312)*1</f>
@@ -17313,7 +17366,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="313" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="313" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A313" s="46"/>
       <c r="B313" s="12">
         <f>SUBTOTAL(3,$C$2:C313)*1</f>
@@ -17347,7 +17400,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="314" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="314" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A314" s="46"/>
       <c r="B314" s="12">
         <f>SUBTOTAL(3,$C$2:C314)*1</f>
@@ -17381,7 +17434,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="315" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="315" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A315" s="46"/>
       <c r="B315" s="12">
         <f>SUBTOTAL(3,$C$2:C315)*1</f>
@@ -17415,7 +17468,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="316" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="316" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A316" s="46"/>
       <c r="B316" s="12">
         <f>SUBTOTAL(3,$C$2:C316)*1</f>
@@ -17449,7 +17502,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="317" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="317" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A317" s="46"/>
       <c r="B317" s="12">
         <f>SUBTOTAL(3,$C$2:C317)*1</f>
@@ -17493,7 +17546,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="318" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="318" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A318" s="46"/>
       <c r="B318" s="12">
         <f>SUBTOTAL(3,$C$2:C318)*1</f>
@@ -17527,7 +17580,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="319" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="319" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A319" s="46"/>
       <c r="B319" s="12">
         <f>SUBTOTAL(3,$C$2:C319)*1</f>
@@ -17571,8 +17624,10 @@
         <v>782</v>
       </c>
     </row>
-    <row r="320" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
-      <c r="A320" s="46"/>
+    <row r="320" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A320" s="46" t="s">
+        <v>1283</v>
+      </c>
       <c r="B320" s="12">
         <f>SUBTOTAL(3,$C$2:C320)*1</f>
         <v>319</v>
@@ -17605,7 +17660,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="321" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="321" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A321" s="46"/>
       <c r="B321" s="12">
         <f>SUBTOTAL(3,$C$2:C321)*1</f>
@@ -17639,7 +17694,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="322" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="322" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A322" s="46"/>
       <c r="B322" s="12">
         <f>SUBTOTAL(3,$C$2:C322)*1</f>
@@ -17683,7 +17738,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="323" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="323" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A323" s="46" t="s">
         <v>1283</v>
       </c>
@@ -17729,7 +17784,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="324" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="324" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A324" s="46" t="s">
         <v>1283</v>
       </c>
@@ -17773,7 +17828,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="325" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="325" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A325" s="46"/>
       <c r="B325" s="12">
         <f>SUBTOTAL(3,$C$2:C325)*1</f>
@@ -17807,7 +17862,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="326" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="326" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A326" s="46"/>
       <c r="B326" s="12">
         <f>SUBTOTAL(3,$C$2:C326)*1</f>
@@ -17851,7 +17906,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="327" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="327" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A327" s="46"/>
       <c r="B327" s="12">
         <f>SUBTOTAL(3,$C$2:C327)*1</f>
@@ -17885,7 +17940,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="328" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="328" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A328" s="46"/>
       <c r="B328" s="12">
         <f>SUBTOTAL(3,$C$2:C328)*1</f>
@@ -17919,7 +17974,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="329" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="329" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A329" s="46"/>
       <c r="B329" s="12">
         <f>SUBTOTAL(3,$C$2:C329)*1</f>
@@ -17963,7 +18018,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="330" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="330" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A330" s="46"/>
       <c r="B330" s="12">
         <f>SUBTOTAL(3,$C$2:C330)*1</f>
@@ -17997,7 +18052,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="331" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="331" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A331" s="46"/>
       <c r="B331" s="12">
         <f>SUBTOTAL(3,$C$2:C331)*1</f>
@@ -18041,7 +18096,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="332" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="332" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A332" s="46"/>
       <c r="B332" s="12">
         <f>SUBTOTAL(3,$C$2:C332)*1</f>
@@ -18075,7 +18130,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="333" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="333" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A333" s="46"/>
       <c r="B333" s="12">
         <f>SUBTOTAL(3,$C$2:C333)*1</f>
@@ -18109,7 +18164,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="334" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="334" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A334" s="46"/>
       <c r="B334" s="12">
         <f>SUBTOTAL(3,$C$2:C334)*1</f>
@@ -18143,7 +18198,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="335" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="335" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A335" s="46"/>
       <c r="B335" s="12">
         <f>SUBTOTAL(3,$C$2:C335)*1</f>
@@ -18177,7 +18232,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="336" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="336" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A336" s="46"/>
       <c r="B336" s="12">
         <f>SUBTOTAL(3,$C$2:C336)*1</f>
@@ -18221,7 +18276,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="337" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="337" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A337" s="46"/>
       <c r="B337" s="12">
         <f>SUBTOTAL(3,$C$2:C337)*1</f>
@@ -18265,7 +18320,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="338" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="338" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A338" s="46"/>
       <c r="B338" s="12">
         <f>SUBTOTAL(3,$C$2:C338)*1</f>
@@ -18299,7 +18354,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="339" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="339" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A339" s="46"/>
       <c r="B339" s="12">
         <f>SUBTOTAL(3,$C$2:C339)*1</f>
@@ -18343,7 +18398,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="340" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="340" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A340" s="46"/>
       <c r="B340" s="12">
         <f>SUBTOTAL(3,$C$2:C340)*1</f>
@@ -18387,7 +18442,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="341" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="341" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A341" s="46"/>
       <c r="B341" s="12">
         <f>SUBTOTAL(3,$C$2:C341)*1</f>
@@ -18431,7 +18486,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="342" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="342" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A342" s="46"/>
       <c r="B342" s="12">
         <f>SUBTOTAL(3,$C$2:C342)*1</f>
@@ -18465,7 +18520,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="343" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="343" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A343" s="46"/>
       <c r="B343" s="12">
         <f>SUBTOTAL(3,$C$2:C343)*1</f>
@@ -18509,7 +18564,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="344" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="344" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A344" s="46"/>
       <c r="B344" s="12">
         <f>SUBTOTAL(3,$C$2:C344)*1</f>
@@ -18553,7 +18608,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="345" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="345" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A345" s="46"/>
       <c r="B345" s="12">
         <f>SUBTOTAL(3,$C$2:C345)*1</f>
@@ -18597,7 +18652,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="346" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="346" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A346" s="46"/>
       <c r="B346" s="12">
         <f>SUBTOTAL(3,$C$2:C346)*1</f>
@@ -18631,7 +18686,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="347" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="347" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A347" s="46"/>
       <c r="B347" s="12">
         <f>SUBTOTAL(3,$C$2:C347)*1</f>
@@ -18675,7 +18730,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="348" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="348" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A348" s="46"/>
       <c r="B348" s="12">
         <f>SUBTOTAL(3,$C$2:C348)*1</f>
@@ -18709,7 +18764,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="349" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="349" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A349" s="46"/>
       <c r="B349" s="12">
         <f>SUBTOTAL(3,$C$2:C349)*1</f>
@@ -18753,8 +18808,10 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="350" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
-      <c r="A350" s="46"/>
+    <row r="350" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A350" s="46" t="s">
+        <v>1284</v>
+      </c>
       <c r="B350" s="12">
         <f>SUBTOTAL(3,$C$2:C350)*1</f>
         <v>349</v>
@@ -18791,7 +18848,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="351" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="351" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A351" s="46"/>
       <c r="B351" s="12">
         <f>SUBTOTAL(3,$C$2:C351)*1</f>
@@ -18835,7 +18892,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="352" spans="1:16" s="35" customFormat="1" ht="33" customHeight="1">
+    <row r="352" spans="1:16" s="35" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A352" s="15"/>
       <c r="B352" s="12">
         <f>SUBTOTAL(3,$C$2:C352)*1</f>
@@ -18879,7 +18936,7 @@
       <c r="O352" s="34"/>
       <c r="P352" s="34"/>
     </row>
-    <row r="353" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="353" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A353" s="46"/>
       <c r="B353" s="12">
         <f>SUBTOTAL(3,$C$2:C353)*1</f>
@@ -18921,7 +18978,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="354" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="354" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A354" s="46"/>
       <c r="B354" s="12">
         <f>SUBTOTAL(3,$C$2:C354)*1</f>
@@ -18965,8 +19022,10 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="355" spans="1:16" s="35" customFormat="1" ht="33" customHeight="1">
-      <c r="A355" s="15"/>
+    <row r="355" spans="1:16" s="35" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A355" s="46" t="s">
+        <v>1284</v>
+      </c>
       <c r="B355" s="12">
         <f>SUBTOTAL(3,$C$2:C355)*1</f>
         <v>354</v>
@@ -18999,7 +19058,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="356" spans="1:16" s="35" customFormat="1" ht="33" customHeight="1">
+    <row r="356" spans="1:16" s="35" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A356" s="15"/>
       <c r="B356" s="12">
         <f>SUBTOTAL(3,$C$2:C356)*1</f>
@@ -19045,8 +19104,10 @@
       <c r="O356" s="34"/>
       <c r="P356" s="34"/>
     </row>
-    <row r="357" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
-      <c r="A357" s="46"/>
+    <row r="357" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A357" s="46" t="s">
+        <v>1284</v>
+      </c>
       <c r="B357" s="12">
         <f>SUBTOTAL(3,$C$2:C357)*1</f>
         <v>356</v>
@@ -19079,7 +19140,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="358" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="358" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A358" s="46"/>
       <c r="B358" s="12">
         <f>SUBTOTAL(3,$C$2:C358)*1</f>
@@ -19125,7 +19186,7 @@
       <c r="O358" s="35"/>
       <c r="P358" s="35"/>
     </row>
-    <row r="359" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="359" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A359" s="46"/>
       <c r="B359" s="12">
         <f>SUBTOTAL(3,$C$2:C359)*1</f>
@@ -19171,7 +19232,7 @@
       <c r="O359" s="35"/>
       <c r="P359" s="35"/>
     </row>
-    <row r="360" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="360" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A360" s="46"/>
       <c r="B360" s="12">
         <f>SUBTOTAL(3,$C$2:C360)*1</f>
@@ -19215,7 +19276,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="361" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="361" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A361" s="46"/>
       <c r="B361" s="12">
         <f>SUBTOTAL(3,$C$2:C361)*1</f>
@@ -19259,7 +19320,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="362" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="362" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A362" s="46"/>
       <c r="B362" s="12">
         <f>SUBTOTAL(3,$C$2:C362)*1</f>
@@ -19303,7 +19364,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="363" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="363" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A363" s="46"/>
       <c r="B363" s="12">
         <f>SUBTOTAL(3,$C$2:C363)*1</f>
@@ -19347,7 +19408,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="364" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="364" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A364" s="46"/>
       <c r="B364" s="12">
         <f>SUBTOTAL(3,$C$2:C364)*1</f>
@@ -19391,7 +19452,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="365" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="365" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A365" s="46"/>
       <c r="B365" s="12">
         <f>SUBTOTAL(3,$C$2:C365)*1</f>
@@ -19435,7 +19496,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="366" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="366" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A366" s="46" t="s">
         <v>1283</v>
       </c>
@@ -19481,7 +19542,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="367" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="367" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A367" s="46"/>
       <c r="B367" s="12">
         <f>SUBTOTAL(3,$C$2:C367)*1</f>
@@ -19525,7 +19586,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="368" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="368" spans="1:16" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A368" s="46"/>
       <c r="B368" s="12">
         <f>SUBTOTAL(3,$C$2:C368)*1</f>
@@ -19569,7 +19630,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="369" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="369" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A369" s="46"/>
       <c r="B369" s="12">
         <f>SUBTOTAL(3,$C$2:C369)*1</f>
@@ -19613,7 +19674,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="370" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="370" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A370" s="46"/>
       <c r="B370" s="12">
         <f>SUBTOTAL(3,$C$2:C370)*1</f>
@@ -19657,7 +19718,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="371" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="371" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A371" s="46"/>
       <c r="B371" s="12">
         <f>SUBTOTAL(3,$C$2:C371)*1</f>
@@ -19701,7 +19762,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="372" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="372" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A372" s="46"/>
       <c r="B372" s="12">
         <f>SUBTOTAL(3,$C$2:C372)*1</f>
@@ -19745,7 +19806,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="373" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="373" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A373" s="46"/>
       <c r="B373" s="12">
         <f>SUBTOTAL(3,$C$2:C373)*1</f>
@@ -19789,7 +19850,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="374" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="374" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A374" s="46"/>
       <c r="B374" s="12">
         <f>SUBTOTAL(3,$C$2:C374)*1</f>
@@ -19833,7 +19894,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="375" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="375" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A375" s="46"/>
       <c r="B375" s="12">
         <f>SUBTOTAL(3,$C$2:C375)*1</f>
@@ -19877,7 +19938,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="376" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="376" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A376" s="46"/>
       <c r="B376" s="12">
         <f>SUBTOTAL(3,$C$2:C376)*1</f>
@@ -19921,7 +19982,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="377" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="377" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A377" s="46"/>
       <c r="B377" s="12">
         <f>SUBTOTAL(3,$C$2:C377)*1</f>
@@ -19955,7 +20016,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="378" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="378" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A378" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20001,7 +20062,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="379" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="379" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A379" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20047,7 +20108,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="380" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="380" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A380" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20094,7 +20155,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="381" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="381" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A381" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20140,7 +20201,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="382" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="382" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A382" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20186,7 +20247,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="383" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="383" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A383" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20233,7 +20294,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="384" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="384" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A384" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20280,7 +20341,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="385" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="385" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A385" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20327,7 +20388,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="386" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="386" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A386" s="46"/>
       <c r="B386" s="12">
         <f>SUBTOTAL(3,$C$1:C386)*1</f>
@@ -20372,7 +20433,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="387" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="387" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A387" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20419,7 +20480,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="388" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="388" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A388" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20466,7 +20527,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="389" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="389" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A389" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20513,7 +20574,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="390" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="390" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A390" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20558,7 +20619,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="391" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="391" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A391" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20605,7 +20666,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="392" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="392" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A392" s="46"/>
       <c r="B392" s="12">
         <f>SUBTOTAL(3,$C$1:C392)*1</f>
@@ -20650,7 +20711,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="393" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="393" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A393" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20697,7 +20758,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="394" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="394" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A394" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20741,7 +20802,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="395" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="395" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A395" s="46" t="s">
         <v>1283</v>
       </c>
@@ -20787,7 +20848,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="396" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1">
+    <row r="396" spans="1:14" s="34" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A396" s="46" t="s">
         <v>1283</v>
       </c>
